--- a/data/hotels_by_city/Denver/Denver_shard_283.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_283.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="506">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g29144-d8445792-Reviews-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
   </si>
   <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-WoodSpring-Suites-Aurora-Denver-Airport.h11919493.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,1401 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r587303295-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>29144</t>
+  </si>
+  <si>
+    <t>8445792</t>
+  </si>
+  <si>
+    <t>587303295</t>
+  </si>
+  <si>
+    <t>06/13/2018</t>
+  </si>
+  <si>
+    <t>Disgusting!</t>
+  </si>
+  <si>
+    <t>Absolutely disgusting hotel! Front desk agent was extremely rude and couldn’t care less about her job! If you have kids do not stay here. This hotel is a truck stop. All the hotels in town were sold out so unfortunately my family and I had to stay the night in this dump! We would have been better off staying at the motel 6!MoreShow less</t>
+  </si>
+  <si>
+    <t>Julia R, Guest Relations at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded June 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2018</t>
+  </si>
+  <si>
+    <t>Absolutely disgusting hotel! Front desk agent was extremely rude and couldn’t care less about her job! If you have kids do not stay here. This hotel is a truck stop. All the hotels in town were sold out so unfortunately my family and I had to stay the night in this dump! We would have been better off staying at the motel 6!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r585862010-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>585862010</t>
+  </si>
+  <si>
+    <t>06/07/2018</t>
+  </si>
+  <si>
+    <t>Very rude employee front desk HOLLy</t>
+  </si>
+  <si>
+    <t>I was stay at your hotel and say the front desk lady holly talkimg about other pepole. She is very rude and should not be anywhere near that place not helpful a busy body and very unpleasant to be around. Will never step foot in there put my crew in that place will go to the other woodsprings suit it not that close to the site but worth the time gas ans money not to have to see Holly ever againMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Julia R, Guest Relations at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded June 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2018</t>
+  </si>
+  <si>
+    <t>I was stay at your hotel and say the front desk lady holly talkimg about other pepole. She is very rude and should not be anywhere near that place not helpful a busy body and very unpleasant to be around. Will never step foot in there put my crew in that place will go to the other woodsprings suit it not that close to the site but worth the time gas ans money not to have to see Holly ever againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r584153659-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>584153659</t>
+  </si>
+  <si>
+    <t>05/31/2018</t>
+  </si>
+  <si>
+    <t>Very clean and employees helpful</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel on a trip to see our newborn grandson.  The employees were very friendly and accommodating.  The room had a small kitchenette, which was very nice.  The only drawback was no daily maid service, so make your own bed!  The hotel offered hospital rates, which was very helpful to us, as we wanted to stay as long as possible, due to our grandson having medical issues.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Julia R, Guest Relations at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded June 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2018</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel on a trip to see our newborn grandson.  The employees were very friendly and accommodating.  The room had a small kitchenette, which was very nice.  The only drawback was no daily maid service, so make your own bed!  The hotel offered hospital rates, which was very helpful to us, as we wanted to stay as long as possible, due to our grandson having medical issues.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r566695212-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>566695212</t>
+  </si>
+  <si>
+    <t>03/15/2018</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay on my vacation</t>
+  </si>
+  <si>
+    <t>I would like to thank the GM Katie Peace  for the hospitality that has been showed during our stay at the WoodSpring Inn &amp; Suites. The staff is friendly as well as professional. They make you feel right at home as soon as you enter the door. The rooms are amazing and clean. An most of all it didn't break the bank. Which means more sight seeing and food tasting. I will be staying again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Julia R, Guest Relations Corporate Liaison at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded March 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2018</t>
+  </si>
+  <si>
+    <t>I would like to thank the GM Katie Peace  for the hospitality that has been showed during our stay at the WoodSpring Inn &amp; Suites. The staff is friendly as well as professional. They make you feel right at home as soon as you enter the door. The rooms are amazing and clean. An most of all it didn't break the bank. Which means more sight seeing and food tasting. I will be staying again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r566694970-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>566694970</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t>We came to Colorado for a family vacation and we had a hotel mix up and didn't have a place to stay...we came to wood springs and explained our situation to the hotel Gm Katy peace...in return she have us a room. Hotel very nice and clean give it 100.MoreShow less</t>
+  </si>
+  <si>
+    <t>We came to Colorado for a family vacation and we had a hotel mix up and didn't have a place to stay...we came to wood springs and explained our situation to the hotel Gm Katy peace...in return she have us a room. Hotel very nice and clean give it 100.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r561529709-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>561529709</t>
+  </si>
+  <si>
+    <t>02/19/2018</t>
+  </si>
+  <si>
+    <t>A shining light experience.</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for a night, again this year, while my husband had tests done at medical hospital.  We stayed last year for a couple of months; while my husband was getting treatment for cancer.  This particular hotel is a shining light experience on top of us having to deal with medical issues.  Katie Peace, the manager always brightens our stay here.  She, along with the staff, are courteous and professional. The rooms are always clean and comfortable. We look forward to staying here and will continue to do so even when our hospital appointments are completed. Thank you. Carol and Nick Gonzales, Pueblo West, COMoreShow less</t>
+  </si>
+  <si>
+    <t>Julia R, Guest Relations Corporate Liaison at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded February 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2018</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for a night, again this year, while my husband had tests done at medical hospital.  We stayed last year for a couple of months; while my husband was getting treatment for cancer.  This particular hotel is a shining light experience on top of us having to deal with medical issues.  Katie Peace, the manager always brightens our stay here.  She, along with the staff, are courteous and professional. The rooms are always clean and comfortable. We look forward to staying here and will continue to do so even when our hospital appointments are completed. Thank you. Carol and Nick Gonzales, Pueblo West, COMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r554672166-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>554672166</t>
+  </si>
+  <si>
+    <t>01/18/2018</t>
+  </si>
+  <si>
+    <t>Visiting</t>
+  </si>
+  <si>
+    <t>Room very clean. Laundry available. Be sure to bring toiletries, I microwaveable dishes or stove top pans. Room has fridge, microwave and stove top.  Floors are not carpeted. Can hear other in near by rooms. Staff great. Nice fitness room. If you stay 30 days would be $50 a day. Secure building. Zero smoking tolerance. You can smoke outside. A different experience but still goodMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Julia R, Guest Relations at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded June 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2018</t>
+  </si>
+  <si>
+    <t>Room very clean. Laundry available. Be sure to bring toiletries, I microwaveable dishes or stove top pans. Room has fridge, microwave and stove top.  Floors are not carpeted. Can hear other in near by rooms. Staff great. Nice fitness room. If you stay 30 days would be $50 a day. Secure building. Zero smoking tolerance. You can smoke outside. A different experience but still goodMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r554489184-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>554489184</t>
+  </si>
+  <si>
+    <t>01/17/2018</t>
+  </si>
+  <si>
+    <t>Great Reception Staff</t>
+  </si>
+  <si>
+    <t>Chose this hotel because it was about 10 miles from the Denver airport.Easy parking, easy checkin and a great manager.It is easy to get to the airport, just hop on to Route 70 and head East, then follow the signs to the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chose this hotel because it was about 10 miles from the Denver airport.Easy parking, easy checkin and a great manager.It is easy to get to the airport, just hop on to Route 70 and head East, then follow the signs to the airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r548191600-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>548191600</t>
+  </si>
+  <si>
+    <t>12/20/2017</t>
+  </si>
+  <si>
+    <t>Staff has been AWESOME!</t>
+  </si>
+  <si>
+    <t>Our company has had drivers in and out of this hotel since October. Its never easy to be on the road away from your family. Katie and her staff have gone above and beyond to make our drivers feel welcome when they are there.  Besides the goodies that Katie makes for our drivers if there are any issues with a room the staff takes care of it right away.  If you want a hotel with a great staff that will make you feel more then welcome to be there.....this is the place to stay!!</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r529879033-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>529879033</t>
+  </si>
+  <si>
+    <t>10/04/2017</t>
+  </si>
+  <si>
+    <t>Save your money and don't waste your time here</t>
+  </si>
+  <si>
+    <t>We arrived at 1:30, was told they did not have any rooms cleaned, magically at 3, all rooms were ready, all at one time. We arrive in the room and the sheets are dingy and discolored, the floor has hair and dust on it, I do not think they clean the rooms at all. There are absolutely no amenities, no hand soup, shampoo, lotion, nothing. Hotel staff is not very warm, or welcoming had an attitude anytime they were asked a question. I forgot something in the hotel and when I called, at 2, they said they haven't cleaned the room. So, I called back, they hung-up. When I called back, she said she checked the room when we got disconnected, well I had called right back after being hung-up on, so there is no way she actually checked, the room is on the 2nd floor at the end of the hall, even with stairs you wouldn't get there in 30 seconds. So, no, I will not be staying here again, I do not trust the staff, they do not seem to clean, or have any kind of hospitality. Save yourself the hassle and stay somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded December 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 19, 2017</t>
+  </si>
+  <si>
+    <t>We arrived at 1:30, was told they did not have any rooms cleaned, magically at 3, all rooms were ready, all at one time. We arrive in the room and the sheets are dingy and discolored, the floor has hair and dust on it, I do not think they clean the rooms at all. There are absolutely no amenities, no hand soup, shampoo, lotion, nothing. Hotel staff is not very warm, or welcoming had an attitude anytime they were asked a question. I forgot something in the hotel and when I called, at 2, they said they haven't cleaned the room. So, I called back, they hung-up. When I called back, she said she checked the room when we got disconnected, well I had called right back after being hung-up on, so there is no way she actually checked, the room is on the 2nd floor at the end of the hall, even with stairs you wouldn't get there in 30 seconds. So, no, I will not be staying here again, I do not trust the staff, they do not seem to clean, or have any kind of hospitality. Save yourself the hassle and stay somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r527938488-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>527938488</t>
+  </si>
+  <si>
+    <t>09/27/2017</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>The room is decently nice, and has a great Kitchenette. Wood floors were dirty and we had to ask the front desk for a shower curtain! Walls are thin and you can hear conversation in the next room. For a quick overnight stay, I would probably stay again hoping the error in the shower curtain and dirty floors was a minor flaw. *bring your own soap as well, no soap supplied! MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>The room is decently nice, and has a great Kitchenette. Wood floors were dirty and we had to ask the front desk for a shower curtain! Walls are thin and you can hear conversation in the next room. For a quick overnight stay, I would probably stay again hoping the error in the shower curtain and dirty floors was a minor flaw. *bring your own soap as well, no soap supplied! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r521436784-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>521436784</t>
+  </si>
+  <si>
+    <t>09/05/2017</t>
+  </si>
+  <si>
+    <t>Worst "Hotel" ever hands down</t>
+  </si>
+  <si>
+    <t>I made an account just to leave a bad review of this place. Anyone who left a good review surely works for the hotel and is trying to make this place look good. The entire place smells terrible. The rooms have nothing, and I mean nothing! There is not even an ice machine or water. If you want soap, towels, or housekeeping to change your sheets, they will charge you money. This place is worse than a motel 6 and that's not even an exaggeration. STAY AWAY!MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded September 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2017</t>
+  </si>
+  <si>
+    <t>I made an account just to leave a bad review of this place. Anyone who left a good review surely works for the hotel and is trying to make this place look good. The entire place smells terrible. The rooms have nothing, and I mean nothing! There is not even an ice machine or water. If you want soap, towels, or housekeeping to change your sheets, they will charge you money. This place is worse than a motel 6 and that's not even an exaggeration. STAY AWAY!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r496507368-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>496507368</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place </t>
+  </si>
+  <si>
+    <t>Very curious and they make a point of getting to know the guests and make it an enjoyable stay. Every problem I've seen come up has been taken care of as quickly as possible by the wonderful staff. The manager is especially friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Very curious and they make a point of getting to know the guests and make it an enjoyable stay. Every problem I've seen come up has been taken care of as quickly as possible by the wonderful staff. The manager is especially friendly and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r488771840-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>488771840</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>Not up to par</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here with our son, black lab and cat for almost 2 months while waiting to get into our new home. The only nice person who works here is the manager Kate. Housekeeping only came around once a week which I was fine with. I asked the front desk to tell housekeeping not come to our room as I was doing the cleaning. They didn't listen and every time they came was when my 1 year old was napping and always woke him up with extremely loud knocking. When we finally left the hotel my husband forgot some clothes and we called and asked if they would hold them so he could go back and pick them up. They said they would. By the time my husband got back (an hour drive from our house) they had already gotten rid of them. I assume they threw them away. Had it not been for poor house keeping and people not listening to directions, staying here would've been a better experience. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded June 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2017</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here with our son, black lab and cat for almost 2 months while waiting to get into our new home. The only nice person who works here is the manager Kate. Housekeeping only came around once a week which I was fine with. I asked the front desk to tell housekeeping not come to our room as I was doing the cleaning. They didn't listen and every time they came was when my 1 year old was napping and always woke him up with extremely loud knocking. When we finally left the hotel my husband forgot some clothes and we called and asked if they would hold them so he could go back and pick them up. They said they would. By the time my husband got back (an hour drive from our house) they had already gotten rid of them. I assume they threw them away. Had it not been for poor house keeping and people not listening to directions, staying here would've been a better experience. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r485799747-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>485799747</t>
+  </si>
+  <si>
+    <t>05/19/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have to buy your own toilet soap </t>
+  </si>
+  <si>
+    <t>Absolutely zero customer service. The hotel didn't have any toiletries. I had to GO OUT TO STORE at night 11pm to BUY BASIC TOILET soap. Disgusting that no one would provide basic necessities. There's NO ONE AT FRONT DESK after 9pm and they only call staff for a "real emergency" probably like you are dying or something. Didn't expect such disgusting service from a hotel in the US.WILL NEVER STAY HERE AND RECOMMEND OTHERS TO RUN AS FAR AS POSSIBLE FROM HEREMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Absolutely zero customer service. The hotel didn't have any toiletries. I had to GO OUT TO STORE at night 11pm to BUY BASIC TOILET soap. Disgusting that no one would provide basic necessities. There's NO ONE AT FRONT DESK after 9pm and they only call staff for a "real emergency" probably like you are dying or something. Didn't expect such disgusting service from a hotel in the US.WILL NEVER STAY HERE AND RECOMMEND OTHERS TO RUN AS FAR AS POSSIBLE FROM HEREMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r484767167-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>484767167</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Very handy to airport!</t>
+  </si>
+  <si>
+    <t>Our flights were cancelled and this hotel came to the rescue! Very easy to check in, check out, clean room. We arrived very late and had no problem finding a nearby restaurant. Great last minute find!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Our flights were cancelled and this hotel came to the rescue! Very easy to check in, check out, clean room. We arrived very late and had no problem finding a nearby restaurant. Great last minute find!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r479838911-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>479838911</t>
+  </si>
+  <si>
+    <t>04/28/2017</t>
+  </si>
+  <si>
+    <t>Good vibes</t>
+  </si>
+  <si>
+    <t>Nice hotel, extremely helpful and knowledgeable staff. Good location near the airport. Plenty of things to do in the area. Would stay again. Katie Peace, general manager was great! I've written enough.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded May 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2017</t>
+  </si>
+  <si>
+    <t>Nice hotel, extremely helpful and knowledgeable staff. Good location near the airport. Plenty of things to do in the area. Would stay again. Katie Peace, general manager was great! I've written enough.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r479831430-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>479831430</t>
+  </si>
+  <si>
+    <t>Break from reality lol</t>
+  </si>
+  <si>
+    <t>Would like to say how wonderful and attentive the staff were. Katie Peace is an awesome General ManagerCaters to the public beautifully. The room we rented was very clean. A little too close to the Hwy but nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>Would like to say how wonderful and attentive the staff were. Katie Peace is an awesome General ManagerCaters to the public beautifully. The room we rented was very clean. A little too close to the Hwy but nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r475283458-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>475283458</t>
+  </si>
+  <si>
+    <t>04/13/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">woodsprings suites Aurora Colorado </t>
+  </si>
+  <si>
+    <t>Friendly staff. The rooms are good size and love the stove top and good size fridge.  pretty much its a peaceful place but with any extended stay you'll have some issues here and there but the staff is ontop of it and is handled very quickly and efficiently! Only complaint I have is I wish the shower water was hotter but thats probably just me because I love really hot showers!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Friendly staff. The rooms are good size and love the stove top and good size fridge.  pretty much its a peaceful place but with any extended stay you'll have some issues here and there but the staff is ontop of it and is handled very quickly and efficiently! Only complaint I have is I wish the shower water was hotter but thats probably just me because I love really hot showers!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r475278836-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>475278836</t>
+  </si>
+  <si>
+    <t>Awesome hotel</t>
+  </si>
+  <si>
+    <t>This is the best hotel that I have stayed in . Over the past year I've come to visit Colorado at least 8 or 9 times and this  has been my best hotel experience.   The  staff is very nice and very helpful and very cheerful.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is the best hotel that I have stayed in . Over the past year I've come to visit Colorado at least 8 or 9 times and this  has been my best hotel experience.   The  staff is very nice and very helpful and very cheerful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r475270692-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>475270692</t>
+  </si>
+  <si>
+    <t>Home Away from Home</t>
+  </si>
+  <si>
+    <t>Katie and her crew truly make hotel living as much like home as you can!  They are welcoming and accommodating to all of your needs.  My room is comfortable, the hotel quiet and the fitness room and laundry are convenient.  I have been in residence for 6 weeks and would recommend it to anyone!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Katie and her crew truly make hotel living as much like home as you can!  They are welcoming and accommodating to all of your needs.  My room is comfortable, the hotel quiet and the fitness room and laundry are convenient.  I have been in residence for 6 weeks and would recommend it to anyone!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r463313920-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>463313920</t>
+  </si>
+  <si>
+    <t>02/27/2017</t>
+  </si>
+  <si>
+    <t>Stayed on Feb 22nd to Friday 24th.</t>
+  </si>
+  <si>
+    <t>Stayed on Feb 22nd to Friday 24th.Nice rooms, accommodations were very nice.  The GM DaRon Porter made if feel like a second home. I wouldn't hesitate to recommend to family and friends.Like the security and safety as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded March 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 3, 2017</t>
+  </si>
+  <si>
+    <t>Stayed on Feb 22nd to Friday 24th.Nice rooms, accommodations were very nice.  The GM DaRon Porter made if feel like a second home. I wouldn't hesitate to recommend to family and friends.Like the security and safety as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r454762860-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>454762860</t>
+  </si>
+  <si>
+    <t>01/25/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay long term!</t>
+  </si>
+  <si>
+    <t>The rooms are a nice size, bed is quite comfortable, nice full fridge, and a decent kitchenette. Fair bathroom space. They offer towel exchanges when you need them, toiletries, trash bags.... Which most extended stay hotels do not. There's a weight room,laundry facilities. They're also pet friendly and have potty areas designated with clean up bags provided for your convenience and cleanliness of the premises. They staff keep the hotel clean and are polite. The G.M. here is great! A Great place to stay whether it's  a short or long term stay. They'll treat you right!  :) :)MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded February 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2017</t>
+  </si>
+  <si>
+    <t>The rooms are a nice size, bed is quite comfortable, nice full fridge, and a decent kitchenette. Fair bathroom space. They offer towel exchanges when you need them, toiletries, trash bags.... Which most extended stay hotels do not. There's a weight room,laundry facilities. They're also pet friendly and have potty areas designated with clean up bags provided for your convenience and cleanliness of the premises. They staff keep the hotel clean and are polite. The G.M. here is great! A Great place to stay whether it's  a short or long term stay. They'll treat you right!  :) :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r454755605-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>454755605</t>
+  </si>
+  <si>
+    <t>It a great hotel would highly recommends to stay here</t>
+  </si>
+  <si>
+    <t>It was a wonderful stay Ashley the housekeep is a wonderful asset to this hotel what ever you need She very attentive and helpful and sweet and kind.and w.a is very funny and a great asset for what he dose very happy always smileing.or room is clean the work out room is great all the staff is happy.MoreShow less</t>
+  </si>
+  <si>
+    <t>It was a wonderful stay Ashley the housekeep is a wonderful asset to this hotel what ever you need She very attentive and helpful and sweet and kind.and w.a is very funny and a great asset for what he dose very happy always smileing.or room is clean the work out room is great all the staff is happy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r451756847-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>451756847</t>
+  </si>
+  <si>
+    <t>01/13/2017</t>
+  </si>
+  <si>
+    <t>The kitchen is decorational only</t>
+  </si>
+  <si>
+    <t>The hotel is clean and staff is nice. However, we booked this hotel and pay a little more because there is kitchen. After we checked in, we then realized there is no supply: pots pans, plates or cups, in the kitchen. There is even no microwave. You can't even get a frozen dinner. There is a 2 burner stove and fridge. We asked the front desk, they say we can purchase these items or bring our own. This is the first time I been a hotel equipment with kitchen but you need to bring your own pots and pans. Do anyone travel with their pots and pants? I feel been cheated because the hotel desc does not say there is no pots, pants, and plates. Please bring your own or to purchase one at the front desk.  The basic wifi is sooooooo slow. You can pay $5 / day for a faster connection.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is clean and staff is nice. However, we booked this hotel and pay a little more because there is kitchen. After we checked in, we then realized there is no supply: pots pans, plates or cups, in the kitchen. There is even no microwave. You can't even get a frozen dinner. There is a 2 burner stove and fridge. We asked the front desk, they say we can purchase these items or bring our own. This is the first time I been a hotel equipment with kitchen but you need to bring your own pots and pans. Do anyone travel with their pots and pants? I feel been cheated because the hotel desc does not say there is no pots, pants, and plates. Please bring your own or to purchase one at the front desk.  The basic wifi is sooooooo slow. You can pay $5 / day for a faster connection.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r447184195-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>447184195</t>
+  </si>
+  <si>
+    <t>12/28/2016</t>
+  </si>
+  <si>
+    <t>Stacy</t>
+  </si>
+  <si>
+    <t>The hotel was very clean the rooms were clean really guiet very friendly internet was great beds were very comfy, right next to freeway very convenient.When you need a great hotel I would suggest you stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded January 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 12, 2017</t>
+  </si>
+  <si>
+    <t>The hotel was very clean the rooms were clean really guiet very friendly internet was great beds were very comfy, right next to freeway very convenient.When you need a great hotel I would suggest you stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r446908736-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>446908736</t>
+  </si>
+  <si>
+    <t>12/27/2016</t>
+  </si>
+  <si>
+    <t>spent are christmas here had a  great time</t>
+  </si>
+  <si>
+    <t>VERY CLEAN , kitchen in room, awesome staff,  excellent  prices. Near alot of fun things to do and also close to the city and the airport. they have a laundry room and a fitness room.  Next time i go to denver i will go here!MoreShow less</t>
+  </si>
+  <si>
+    <t>VERY CLEAN , kitchen in room, awesome staff,  excellent  prices. Near alot of fun things to do and also close to the city and the airport. they have a laundry room and a fitness room.  Next time i go to denver i will go here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r443154858-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>443154858</t>
+  </si>
+  <si>
+    <t>12/09/2016</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>Very nice stay. Customer Service was above and beyond. Very pet friendly as well. Room had kitchenette which made it nice and homey. Rooms were clean and laid out nicely. Wi-Fi connection was easy. Made you feel like home with family.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very nice stay. Customer Service was above and beyond. Very pet friendly as well. Room had kitchenette which made it nice and homey. Rooms were clean and laid out nicely. Wi-Fi connection was easy. Made you feel like home with family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r442163998-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>442163998</t>
+  </si>
+  <si>
+    <t>12/05/2016</t>
+  </si>
+  <si>
+    <t>Fresh</t>
+  </si>
+  <si>
+    <t>I could go on and on about this place. My husband and I stay in hotels a lot due to work and leisure and we have stayed in the best of the best. I give these guys 5+ stars in every category! We will be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>I could go on and on about this place. My husband and I stay in hotels a lot due to work and leisure and we have stayed in the best of the best. I give these guys 5+ stars in every category! We will be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r438623396-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>438623396</t>
+  </si>
+  <si>
+    <t>11/19/2016</t>
+  </si>
+  <si>
+    <t>Best hotel ever!</t>
+  </si>
+  <si>
+    <t>The rooms are great! It's a very clean hotel and has great wifi! The washer and dryers take card in case you don't have change! I wish every hotel was like this one! Also the managers are awesome!(Jb and Katie)MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded December 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 2, 2016</t>
+  </si>
+  <si>
+    <t>The rooms are great! It's a very clean hotel and has great wifi! The washer and dryers take card in case you don't have change! I wish every hotel was like this one! Also the managers are awesome!(Jb and Katie)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r432139232-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>432139232</t>
+  </si>
+  <si>
+    <t>10/27/2016</t>
+  </si>
+  <si>
+    <t>The hotel manager Katie is outstanding!</t>
+  </si>
+  <si>
+    <t>We had to stay at the Woodspring Suites because we were waiting to move into our home. We stayed seven weeks and Katie treated us like she would treat her family. She always greeted us in the morning and took great interest in us. She made sure our room (415) was well taken care of and she always had great little snacks at the desk she had made.  One evening she even had a home cooked dinner for residents and staff.  I would recommend this place to anyone needing to stay in an extended stay.  It was always clean, quiet, and again Katie made my stay beyond enjoyable. My husband and I are both professionals so we wanted to stay in a place that was well maintained plus we needed a safe place for our son. This place definitely lived up to our expectations. Katie if you get a chance to read this you are the best and good luck with cheer season.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>We had to stay at the Woodspring Suites because we were waiting to move into our home. We stayed seven weeks and Katie treated us like she would treat her family. She always greeted us in the morning and took great interest in us. She made sure our room (415) was well taken care of and she always had great little snacks at the desk she had made.  One evening she even had a home cooked dinner for residents and staff.  I would recommend this place to anyone needing to stay in an extended stay.  It was always clean, quiet, and again Katie made my stay beyond enjoyable. My husband and I are both professionals so we wanted to stay in a place that was well maintained plus we needed a safe place for our son. This place definitely lived up to our expectations. Katie if you get a chance to read this you are the best and good luck with cheer season.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r431867982-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>431867982</t>
+  </si>
+  <si>
+    <t>10/26/2016</t>
+  </si>
+  <si>
+    <t>Had an absolutely amazing stay</t>
+  </si>
+  <si>
+    <t>By far, one of my top favorite hotels I've stayed in. Very clean, modern, and classy room. Great little kitchenette, full fridge, two stove tops, and large sink. Soft bed, large flatscreen tv and very clean bathroom. Staff was very friendly and helpful. Would stay again in a heartbeat!MoreShow less</t>
+  </si>
+  <si>
+    <t>By far, one of my top favorite hotels I've stayed in. Very clean, modern, and classy room. Great little kitchenette, full fridge, two stove tops, and large sink. Soft bed, large flatscreen tv and very clean bathroom. Staff was very friendly and helpful. Would stay again in a heartbeat!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r431622276-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>431622276</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>Great friendly,  and professional staff.</t>
+  </si>
+  <si>
+    <t>Very professional staff. I ended up having a broken shower and they accommodated me at every aspect. Would recommend them to anyone. My room was very clean, and the cleaning staff is very accommodating as well. MoreShow less</t>
+  </si>
+  <si>
+    <t>Very professional staff. I ended up having a broken shower and they accommodated me at every aspect. Would recommend them to anyone. My room was very clean, and the cleaning staff is very accommodating as well. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r422660520-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>422660520</t>
+  </si>
+  <si>
+    <t>09/26/2016</t>
+  </si>
+  <si>
+    <t>Awesome Hotel</t>
+  </si>
+  <si>
+    <t>I am staying in the hotel now and it's incredible.The employees are extremely friendly, the rooms are super clean and modern.Best of all it's the cheapest hotel in the Denver Area.I would stay in this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am staying in the hotel now and it's incredible.The employees are extremely friendly, the rooms are super clean and modern.Best of all it's the cheapest hotel in the Denver Area.I would stay in this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r418987615-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>418987615</t>
+  </si>
+  <si>
+    <t>09/15/2016</t>
+  </si>
+  <si>
+    <t>rated poor for one reason</t>
+  </si>
+  <si>
+    <t>Customer serviceMy wife and I checked in and found that our bathroom had been used after the room was cleaned.  We reported this to the front desk (opened bar soap and used wash cloth on the sink counter).  The manager replied "impossible".  Sorry Miss WoodSpring but that is the case.  I asked them to please check this out.  Came back from dinner and asked what they found and the response was "Actually we did not hear about anything".  No offer of moving to another room.  We stayed (didn't have a choice) and the room was quite comfortable except that there is no carpeting anywhere so it can be noisy and the floor was not super clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>Customer serviceMy wife and I checked in and found that our bathroom had been used after the room was cleaned.  We reported this to the front desk (opened bar soap and used wash cloth on the sink counter).  The manager replied "impossible".  Sorry Miss WoodSpring but that is the case.  I asked them to please check this out.  Came back from dinner and asked what they found and the response was "Actually we did not hear about anything".  No offer of moving to another room.  We stayed (didn't have a choice) and the room was quite comfortable except that there is no carpeting anywhere so it can be noisy and the floor was not super clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r418974548-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>418974548</t>
+  </si>
+  <si>
+    <t>Awsome woodspring</t>
+  </si>
+  <si>
+    <t>By far the best WoodSpring I have ever been in, the staff is amazing the rooms are very clean and and the beds are amazing for the rate. If your looking for a great deal this place is it! I do stay at value place and WoodSpring all over the country and this is the best one I have been in two to three years.MoreShow less</t>
+  </si>
+  <si>
+    <t>By far the best WoodSpring I have ever been in, the staff is amazing the rooms are very clean and and the beds are amazing for the rate. If your looking for a great deal this place is it! I do stay at value place and WoodSpring all over the country and this is the best one I have been in two to three years.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r397933561-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>397933561</t>
+  </si>
+  <si>
+    <t>07/27/2016</t>
+  </si>
+  <si>
+    <t>Location and Price Can't be beat!!!</t>
+  </si>
+  <si>
+    <t>We just returned from a 7 night stay here.  We loved the location we picked; it's near the airport so catching an early flight out was easy breezy.  The price couldn't be beat and with a kitchenette for our use; a great addition to saving even more money by making our own breakfast and dinner.  (Tip - bring a pot/pan/silverware or have it wrapped into your budget; none were provided - a quick trip to Family Dollar for a set of pans, a spatula and a bowl supplied me with what I needed to make many meals).  I did bring; usually do pack, paper plates, cups, silverware, paper towels and napkins wherever we go. Our room was spacious and comfortable. We found the front desk staff very friendly; Serena and Cameron were great!!  Some of the comments here are correct; this is a long-term stay hotel and the front desk is not manned 24/7; housekeeping is not provided if staying only a week but towels could be exchanged and toilet paper provided upon request.  There is coffee provided in the morning to start your day; there is not a coffee maker in the room so this was nice.  We enjoyed our stay with minimal amenities; we were on a budget and this fits the bill.  We were able to spend our funds in Aurora, Denver, Golden, Morrison, Boulder, Rocky Mountain National Park!!  We would stay here again, away from the...We just returned from a 7 night stay here.  We loved the location we picked; it's near the airport so catching an early flight out was easy breezy.  The price couldn't be beat and with a kitchenette for our use; a great addition to saving even more money by making our own breakfast and dinner.  (Tip - bring a pot/pan/silverware or have it wrapped into your budget; none were provided - a quick trip to Family Dollar for a set of pans, a spatula and a bowl supplied me with what I needed to make many meals).  I did bring; usually do pack, paper plates, cups, silverware, paper towels and napkins wherever we go. Our room was spacious and comfortable. We found the front desk staff very friendly; Serena and Cameron were great!!  Some of the comments here are correct; this is a long-term stay hotel and the front desk is not manned 24/7; housekeeping is not provided if staying only a week but towels could be exchanged and toilet paper provided upon request.  There is coffee provided in the morning to start your day; there is not a coffee maker in the room so this was nice.  We enjoyed our stay with minimal amenities; we were on a budget and this fits the bill.  We were able to spend our funds in Aurora, Denver, Golden, Morrison, Boulder, Rocky Mountain National Park!!  We would stay here again, away from the heavy Denver traffic and a hop-skip and a jump to many areas of interest.  It's a secure hotel; we found it to be clean with hard wood floors and hallways, yes we could smell pot now and again but you are in Denver; there's isn't much anyone can do about it; the smell is everywhere.  I didn't smell cigarette smoke; which to us is more offensive.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Serena H, Front Office Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded July 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2016</t>
+  </si>
+  <si>
+    <t>We just returned from a 7 night stay here.  We loved the location we picked; it's near the airport so catching an early flight out was easy breezy.  The price couldn't be beat and with a kitchenette for our use; a great addition to saving even more money by making our own breakfast and dinner.  (Tip - bring a pot/pan/silverware or have it wrapped into your budget; none were provided - a quick trip to Family Dollar for a set of pans, a spatula and a bowl supplied me with what I needed to make many meals).  I did bring; usually do pack, paper plates, cups, silverware, paper towels and napkins wherever we go. Our room was spacious and comfortable. We found the front desk staff very friendly; Serena and Cameron were great!!  Some of the comments here are correct; this is a long-term stay hotel and the front desk is not manned 24/7; housekeeping is not provided if staying only a week but towels could be exchanged and toilet paper provided upon request.  There is coffee provided in the morning to start your day; there is not a coffee maker in the room so this was nice.  We enjoyed our stay with minimal amenities; we were on a budget and this fits the bill.  We were able to spend our funds in Aurora, Denver, Golden, Morrison, Boulder, Rocky Mountain National Park!!  We would stay here again, away from the...We just returned from a 7 night stay here.  We loved the location we picked; it's near the airport so catching an early flight out was easy breezy.  The price couldn't be beat and with a kitchenette for our use; a great addition to saving even more money by making our own breakfast and dinner.  (Tip - bring a pot/pan/silverware or have it wrapped into your budget; none were provided - a quick trip to Family Dollar for a set of pans, a spatula and a bowl supplied me with what I needed to make many meals).  I did bring; usually do pack, paper plates, cups, silverware, paper towels and napkins wherever we go. Our room was spacious and comfortable. We found the front desk staff very friendly; Serena and Cameron were great!!  Some of the comments here are correct; this is a long-term stay hotel and the front desk is not manned 24/7; housekeeping is not provided if staying only a week but towels could be exchanged and toilet paper provided upon request.  There is coffee provided in the morning to start your day; there is not a coffee maker in the room so this was nice.  We enjoyed our stay with minimal amenities; we were on a budget and this fits the bill.  We were able to spend our funds in Aurora, Denver, Golden, Morrison, Boulder, Rocky Mountain National Park!!  We would stay here again, away from the heavy Denver traffic and a hop-skip and a jump to many areas of interest.  It's a secure hotel; we found it to be clean with hard wood floors and hallways, yes we could smell pot now and again but you are in Denver; there's isn't much anyone can do about it; the smell is everywhere.  I didn't smell cigarette smoke; which to us is more offensive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r397019897-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>397019897</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Dirty and smelly</t>
+  </si>
+  <si>
+    <t>I read the reviews.  The reviews are why we stayed here.  Something seems amiss.  The room and the bathroom floors were filthy.  If you walked on them your feet would be grey/black when you were done.  There was dust and dirt in the corners.  We arrived on the day of the scheduled housekeeping for our floor so the room should have been the cleanest it could be between guests.  Our room also smelled like smoke and pot.  We finally realized it was coming thru the vent.  The elevator reeked daily.  I reviewed to the hotel and received a canned response.  The hotel staff was very friendly but still they need some housekeeping tips.MoreShow less</t>
+  </si>
+  <si>
+    <t>Serena H, Front Office Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded July 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2016</t>
+  </si>
+  <si>
+    <t>I read the reviews.  The reviews are why we stayed here.  Something seems amiss.  The room and the bathroom floors were filthy.  If you walked on them your feet would be grey/black when you were done.  There was dust and dirt in the corners.  We arrived on the day of the scheduled housekeeping for our floor so the room should have been the cleanest it could be between guests.  Our room also smelled like smoke and pot.  We finally realized it was coming thru the vent.  The elevator reeked daily.  I reviewed to the hotel and received a canned response.  The hotel staff was very friendly but still they need some housekeeping tips.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r395251262-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>395251262</t>
+  </si>
+  <si>
+    <t>07/21/2016</t>
+  </si>
+  <si>
+    <t>Good Deal/Great Place to Stay</t>
+  </si>
+  <si>
+    <t>Really not a lot of amenities, but conveniently located to Denver, as well as to the airport. Desk is not staffed much of the time, and often they don't even answer the call phone. Nevertheless, they were friendly and helpful when they were present. 
+Not a lot of extras supplied, but extra towels, soap, etc. were immediately supplied, when requested. Basic WIFI is free, and at adequate speed for most everything but gaming. Rooms were quiet, despite close proximity to major Interstate highway. Heating and cooling are both good. Since I stayed there for more than a few days and worked from my room, I especially appreciated tat they basically let me alone to work in peace and quiet, while at the same time being sufficiently available to to meet all my needs. No pool, but I had no kids with me, so who really cares? Laundry room is new, efficient, reasonably priced and is kept clean and supplied with laundry basics.
+Located right next to another motel where I had booked a week, but spent only 1 night, since it turned out to be basically a homeless hotel for addicts of all sorts, as well as being absolutely filthy, inside and out. Price was essentially the same there as at WOODSPRING - BUT WHAT A huge DIFFERENCE!
+Enjoyed my stay here and actually wished I could have remained for a few more days. Will look for similar place in...Really not a lot of amenities, but conveniently located to Denver, as well as to the airport. Desk is not staffed much of the time, and often they don't even answer the call phone. Nevertheless, they were friendly and helpful when they were present. Not a lot of extras supplied, but extra towels, soap, etc. were immediately supplied, when requested. Basic WIFI is free, and at adequate speed for most everything but gaming. Rooms were quiet, despite close proximity to major Interstate highway. Heating and cooling are both good. Since I stayed there for more than a few days and worked from my room, I especially appreciated tat they basically let me alone to work in peace and quiet, while at the same time being sufficiently available to to meet all my needs. No pool, but I had no kids with me, so who really cares? Laundry room is new, efficient, reasonably priced and is kept clean and supplied with laundry basics.Located right next to another motel where I had booked a week, but spent only 1 night, since it turned out to be basically a homeless hotel for addicts of all sorts, as well as being absolutely filthy, inside and out. Price was essentially the same there as at WOODSPRING - BUT WHAT A huge DIFFERENCE!Enjoyed my stay here and actually wished I could have remained for a few more days. Will look for similar place in future.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Serena H, Front Office Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded July 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2016</t>
+  </si>
+  <si>
+    <t>Really not a lot of amenities, but conveniently located to Denver, as well as to the airport. Desk is not staffed much of the time, and often they don't even answer the call phone. Nevertheless, they were friendly and helpful when they were present. 
+Not a lot of extras supplied, but extra towels, soap, etc. were immediately supplied, when requested. Basic WIFI is free, and at adequate speed for most everything but gaming. Rooms were quiet, despite close proximity to major Interstate highway. Heating and cooling are both good. Since I stayed there for more than a few days and worked from my room, I especially appreciated tat they basically let me alone to work in peace and quiet, while at the same time being sufficiently available to to meet all my needs. No pool, but I had no kids with me, so who really cares? Laundry room is new, efficient, reasonably priced and is kept clean and supplied with laundry basics.
+Located right next to another motel where I had booked a week, but spent only 1 night, since it turned out to be basically a homeless hotel for addicts of all sorts, as well as being absolutely filthy, inside and out. Price was essentially the same there as at WOODSPRING - BUT WHAT A huge DIFFERENCE!
+Enjoyed my stay here and actually wished I could have remained for a few more days. Will look for similar place in...Really not a lot of amenities, but conveniently located to Denver, as well as to the airport. Desk is not staffed much of the time, and often they don't even answer the call phone. Nevertheless, they were friendly and helpful when they were present. Not a lot of extras supplied, but extra towels, soap, etc. were immediately supplied, when requested. Basic WIFI is free, and at adequate speed for most everything but gaming. Rooms were quiet, despite close proximity to major Interstate highway. Heating and cooling are both good. Since I stayed there for more than a few days and worked from my room, I especially appreciated tat they basically let me alone to work in peace and quiet, while at the same time being sufficiently available to to meet all my needs. No pool, but I had no kids with me, so who really cares? Laundry room is new, efficient, reasonably priced and is kept clean and supplied with laundry basics.Located right next to another motel where I had booked a week, but spent only 1 night, since it turned out to be basically a homeless hotel for addicts of all sorts, as well as being absolutely filthy, inside and out. Price was essentially the same there as at WOODSPRING - BUT WHAT A huge DIFFERENCE!Enjoyed my stay here and actually wished I could have remained for a few more days. Will look for similar place in future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r391210037-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>391210037</t>
+  </si>
+  <si>
+    <t>07/10/2016</t>
+  </si>
+  <si>
+    <t>Highly Recommend Staying Here!</t>
+  </si>
+  <si>
+    <t>I had a great experience here! I stayed for a little over 3 months for my job - I hadn't planned to stay here as I previously had other lodging arranged, but when it fell through I was scrambling to find another place...and then I found this gem! WoodSpring is very affordable and the property is conveniently located just off the highway. Also, looks exactly like the pictures - spacious and the rooms are very clean. I can't even begin to say how wonderful the staff here is as well! Very friendly and accommodating. I always felt safe coming and going at all hours of the day - you need a room key to get into the main hotel area. Thank you for making my stay a great one!MoreShow less</t>
+  </si>
+  <si>
+    <t>Serena H, Front Office Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded July 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2016</t>
+  </si>
+  <si>
+    <t>I had a great experience here! I stayed for a little over 3 months for my job - I hadn't planned to stay here as I previously had other lodging arranged, but when it fell through I was scrambling to find another place...and then I found this gem! WoodSpring is very affordable and the property is conveniently located just off the highway. Also, looks exactly like the pictures - spacious and the rooms are very clean. I can't even begin to say how wonderful the staff here is as well! Very friendly and accommodating. I always felt safe coming and going at all hours of the day - you need a room key to get into the main hotel area. Thank you for making my stay a great one!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r381167064-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>381167064</t>
+  </si>
+  <si>
+    <t>06/09/2016</t>
+  </si>
+  <si>
+    <t>Good place to stay!</t>
+  </si>
+  <si>
+    <t>I like that it's a quiet area and the staff was very friendly. Everything was great, except the room's floor, which was sticky and there was no soap in the bathroom, but I would definetely come here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Serena H, Front Office Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded June 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2016</t>
+  </si>
+  <si>
+    <t>I like that it's a quiet area and the staff was very friendly. Everything was great, except the room's floor, which was sticky and there was no soap in the bathroom, but I would definetely come here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r378303377-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>378303377</t>
+  </si>
+  <si>
+    <t>05/31/2016</t>
+  </si>
+  <si>
+    <t>They don't listen</t>
+  </si>
+  <si>
+    <t>First off, the staff and room were great. I was very comfortable with my stay up until I met some managers. I happened to be staying here for my grandson's graduation. During my stay the hotel opened a snack shop and coffee station. This was fine and all but they have limited hours (6-11) on the coffee and the snack shop's prices are insane. I was in the lobby one morning drinking coffee and I was approached by a gentleman named "Danny". Not sure who he is but definitely felt like a manager. He asked what I thought and I told him the coffee she be open longer....Well I was there for about 2 weeks after meeting and still crazy limited hours on the coffee. Guess they don't care to listen? If you're looking for a clean room with a half attempt at basic hotel amenities this is your place. Talk to Serena or Chariy at the desk if you need anything, they listen.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>First off, the staff and room were great. I was very comfortable with my stay up until I met some managers. I happened to be staying here for my grandson's graduation. During my stay the hotel opened a snack shop and coffee station. This was fine and all but they have limited hours (6-11) on the coffee and the snack shop's prices are insane. I was in the lobby one morning drinking coffee and I was approached by a gentleman named "Danny". Not sure who he is but definitely felt like a manager. He asked what I thought and I told him the coffee she be open longer....Well I was there for about 2 weeks after meeting and still crazy limited hours on the coffee. Guess they don't care to listen? If you're looking for a clean room with a half attempt at basic hotel amenities this is your place. Talk to Serena or Chariy at the desk if you need anything, they listen.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r373857988-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>373857988</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>AMAZING!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>The staff at this hotel is superb!! Charity, Serena and Jennifer that works the night shift were beyond accommodating when it came to my stay ad my questions!! I stayed here for a week, the rate was worth it while I looked for employment in the Denver area! I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Serena H, Front Office Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded May 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2016</t>
+  </si>
+  <si>
+    <t>The staff at this hotel is superb!! Charity, Serena and Jennifer that works the night shift were beyond accommodating when it came to my stay ad my questions!! I stayed here for a week, the rate was worth it while I looked for employment in the Denver area! I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r368769770-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>368769770</t>
+  </si>
+  <si>
+    <t>04/29/2016</t>
+  </si>
+  <si>
+    <t>Good Spot</t>
+  </si>
+  <si>
+    <t>I have been staying at this motel on and off since last fall for work. The only reason it gets 4 stars is the front desk referred me to a Value Place in Colorado Springs and it was horrible. The staff here will go out of their way to take care of you. They're apparently required to charge for pots and pans but they went out of their way to find me some that someone had just left behind. I love feeling like I'm number one even when I'm not paying $200 a night. Great place, I highly encourage it to folks not looking to pay a ton.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Serena H, Front Office Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded May 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2016</t>
+  </si>
+  <si>
+    <t>I have been staying at this motel on and off since last fall for work. The only reason it gets 4 stars is the front desk referred me to a Value Place in Colorado Springs and it was horrible. The staff here will go out of their way to take care of you. They're apparently required to charge for pots and pans but they went out of their way to find me some that someone had just left behind. I love feeling like I'm number one even when I'm not paying $200 a night. Great place, I highly encourage it to folks not looking to pay a ton.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r363974492-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>363974492</t>
+  </si>
+  <si>
+    <t>04/13/2016</t>
+  </si>
+  <si>
+    <t>Best place I have stayed!</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for a week and it was a great experience! The room was very clean, very convenient with the kitchen in the room. I had no problems what so ever felt just like home. The staff was so friendly and helpful to my needs, the manager on duty was amazing and so nice. I will definitely be coming to this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Serena H, Front Office Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded April 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for a week and it was a great experience! The room was very clean, very convenient with the kitchen in the room. I had no problems what so ever felt just like home. The staff was so friendly and helpful to my needs, the manager on duty was amazing and so nice. I will definitely be coming to this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r357699409-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>357699409</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>Pleasant Stay</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel if you are staying for a few weeks at a time. The kitchenettes save you loads of money on eating out and the room was very clean. The staff was very friendly and the manager Serena was very accommodating and helpful during my entire stay. I would absolutely recommend this hotel to anyone and would stay here again myself if I was in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Serena H, Front Office Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded April 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2016</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel if you are staying for a few weeks at a time. The kitchenettes save you loads of money on eating out and the room was very clean. The staff was very friendly and the manager Serena was very accommodating and helpful during my entire stay. I would absolutely recommend this hotel to anyone and would stay here again myself if I was in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r356455188-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>356455188</t>
+  </si>
+  <si>
+    <t>03/17/2016</t>
+  </si>
+  <si>
+    <t>Be warned</t>
+  </si>
+  <si>
+    <t>This is a hotel with kitchenettes that have no plates, pans, glasses or silverware. It had one paper cup. Not even a coffee maker. If you want to use the kitchenettes you have to buy a dish pack. So figure that into the price you are paying. Also, they ran out of dish packs so as a practical matter the kitchenette was useless. Poor value for what you get.MoreShow less</t>
+  </si>
+  <si>
+    <t>Serena H, Front Office Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded March 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2016</t>
+  </si>
+  <si>
+    <t>This is a hotel with kitchenettes that have no plates, pans, glasses or silverware. It had one paper cup. Not even a coffee maker. If you want to use the kitchenettes you have to buy a dish pack. So figure that into the price you are paying. Also, they ran out of dish packs so as a practical matter the kitchenette was useless. Poor value for what you get.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r346002622-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>346002622</t>
+  </si>
+  <si>
+    <t>02/08/2016</t>
+  </si>
+  <si>
+    <t>Great rooms for a long stay.</t>
+  </si>
+  <si>
+    <t>The rooms were very nice with hardwood floors. Nice sized TV, nice furnished kitchen and furniture for a lengthy stay. It was convenient for restaurants, shopping and near other places needed for a long stay. Convenient to highways to get to a variety of destinations nearby for sight seeing or day trips. The staff was very professional and remembered you when coming to desk for questions or picking up mail.MoreShow less</t>
+  </si>
+  <si>
+    <t>Serena H, Front Office Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded February 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2016</t>
+  </si>
+  <si>
+    <t>The rooms were very nice with hardwood floors. Nice sized TV, nice furnished kitchen and furniture for a lengthy stay. It was convenient for restaurants, shopping and near other places needed for a long stay. Convenient to highways to get to a variety of destinations nearby for sight seeing or day trips. The staff was very professional and remembered you when coming to desk for questions or picking up mail.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r335989132-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>335989132</t>
+  </si>
+  <si>
+    <t>12/30/2015</t>
+  </si>
+  <si>
+    <t>Very nice extended stay!</t>
+  </si>
+  <si>
+    <t>I have had an excellent experience at this hotel.... It's very clean.  The rooms have hardwood floors and large flat screen TV's.  If you plan on staying for a considerable amount of time, Veronica, who is a member of the hospitality staff is the best!  Her attention to detail while cleaning is wonderful.  The management is very responsive.  Both Brent and Serena have met each and every request I've ever had.  Nice laundry facility and fitness center too.MoreShow less</t>
+  </si>
+  <si>
+    <t>Serena H, Front Office Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded December 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 31, 2015</t>
+  </si>
+  <si>
+    <t>I have had an excellent experience at this hotel.... It's very clean.  The rooms have hardwood floors and large flat screen TV's.  If you plan on staying for a considerable amount of time, Veronica, who is a member of the hospitality staff is the best!  Her attention to detail while cleaning is wonderful.  The management is very responsive.  Both Brent and Serena have met each and every request I've ever had.  Nice laundry facility and fitness center too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r332293591-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>332293591</t>
+  </si>
+  <si>
+    <t>12/12/2015</t>
+  </si>
+  <si>
+    <t>Friendly staff and clean hotel</t>
+  </si>
+  <si>
+    <t>I stayed here almost 3 months..it is a new hotel, my room was very clean and quiet..also all staff are very friendly and helpfull..i would highly recommend this hotel .................................... Thanks to Brent and all staff..MoreShow less</t>
+  </si>
+  <si>
+    <t>Serena H, Front Office Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded December 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here almost 3 months..it is a new hotel, my room was very clean and quiet..also all staff are very friendly and helpfull..i would highly recommend this hotel .................................... Thanks to Brent and all staff..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r330779699-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>330779699</t>
+  </si>
+  <si>
+    <t>12/04/2015</t>
+  </si>
+  <si>
+    <t>The staff here are people driven and have great customer service skills. I recommend this hotel to everyone because here everyone is welcomed! WoodSpring Suites is also very suitable for a family vacation. Here you feel like you are home away from homeMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>The staff here are people driven and have great customer service skills. I recommend this hotel to everyone because here everyone is welcomed! WoodSpring Suites is also very suitable for a family vacation. Here you feel like you are home away from homeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r330706735-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>330706735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great experience </t>
+  </si>
+  <si>
+    <t>I been here since 10-12-15 I really like all the people here there staff are very nice they are always willing to help with any problems we may have and the are very clean I would recommend you to stay hereMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>I been here since 10-12-15 I really like all the people here there staff are very nice they are always willing to help with any problems we may have and the are very clean I would recommend you to stay hereMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r328905332-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>328905332</t>
+  </si>
+  <si>
+    <t>11/24/2015</t>
+  </si>
+  <si>
+    <t>Excellent experience !</t>
+  </si>
+  <si>
+    <t>i love the hotel, everything is new and clear in the room ! Comfortable bed to sleep on; love the refrigerator and microwave. Front desk staff Serena and general manager Brent are the best! I had really good experience at Woodspring Suite! I am recommending everyone I know to go to this hotel to stay :-)MoreShow less</t>
+  </si>
+  <si>
+    <t>i love the hotel, everything is new and clear in the room ! Comfortable bed to sleep on; love the refrigerator and microwave. Front desk staff Serena and general manager Brent are the best! I had really good experience at Woodspring Suite! I am recommending everyone I know to go to this hotel to stay :-)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r326546519-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>326546519</t>
+  </si>
+  <si>
+    <t>11/13/2015</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>I would highly recommend this hotel for any family it's in a really convenient area all the staff for a nice the guest manager Serena happen to be one of the greatest workers they have I really like to thank you for our stayMoreShow less</t>
+  </si>
+  <si>
+    <t>I would highly recommend this hotel for any family it's in a really convenient area all the staff for a nice the guest manager Serena happen to be one of the greatest workers they have I really like to thank you for our stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r321270125-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>321270125</t>
+  </si>
+  <si>
+    <t>10/23/2015</t>
+  </si>
+  <si>
+    <t>Amazing staffing and excellent location.</t>
+  </si>
+  <si>
+    <t>Staff was so nice when arriving. Hotel area was very convenient for traveling due to it being close to every main highway in Colorado. Right by the airport without being expensive. Great variety of places to eat. Will defiantly be coming back here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Staff was so nice when arriving. Hotel area was very convenient for traveling due to it being close to every main highway in Colorado. Right by the airport without being expensive. Great variety of places to eat. Will defiantly be coming back here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r321269463-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>321269463</t>
+  </si>
+  <si>
+    <t>I know where I'll stay next time</t>
+  </si>
+  <si>
+    <t>This hotel is very clean and the staff were friendly and helpful. The bed was comfortable and the room had great style. My expectations were exceeded, and I would definitely plan to go here again the next time I'm in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>This hotel is very clean and the staff were friendly and helpful. The bed was comfortable and the room had great style. My expectations were exceeded, and I would definitely plan to go here again the next time I'm in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r319620762-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>319620762</t>
+  </si>
+  <si>
+    <t>10/17/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very clean </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff is Great!!  The hotel is very clean rooms are nice full size refrigerators are a plus.  my family and I stayed here will definitely return!  The staff was more then helpful and made sure our stay was a comfortable one. I've already recommended this place to friends and family </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r317194345-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>317194345</t>
+  </si>
+  <si>
+    <t>10/08/2015</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>My family ended up needing a place to stay while in Colorado on vacation and was recommended this hotel. Rooms were very clean. Staff was always professional and helpful. Will definitely be back! Great for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>jfrex08, General Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded October 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2015</t>
+  </si>
+  <si>
+    <t>My family ended up needing a place to stay while in Colorado on vacation and was recommended this hotel. Rooms were very clean. Staff was always professional and helpful. Will definitely be back! Great for the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r316868903-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>316868903</t>
+  </si>
+  <si>
+    <t>10/07/2015</t>
+  </si>
+  <si>
+    <t>Fantastic customer service and beautiful, clean rooms.</t>
+  </si>
+  <si>
+    <t>Management goes out of their way to ensure customer satisfaction ! I really enjoyed my stay and was extremely pleased with the room and service.I recommend highly.Do remember to bring your own blow dryer and shampoo. There are irons available for check out.Perfect place for an extended stay, price falls for longer stays and rooms have small kitchens with microwaves.MoreShow less</t>
+  </si>
+  <si>
+    <t>jfrex08, General Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded October 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 8, 2015</t>
+  </si>
+  <si>
+    <t>Management goes out of their way to ensure customer satisfaction ! I really enjoyed my stay and was extremely pleased with the room and service.I recommend highly.Do remember to bring your own blow dryer and shampoo. There are irons available for check out.Perfect place for an extended stay, price falls for longer stays and rooms have small kitchens with microwaves.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r316542129-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>316542129</t>
+  </si>
+  <si>
+    <t>10/06/2015</t>
+  </si>
+  <si>
+    <t>Spartan</t>
+  </si>
+  <si>
+    <t>The above reviews are accurate. We just needed a place to sleep before catching a morning flight. This hotel fit the bill. We were there less than 12 hours. There was one bar of soap in the bath. No shampoo. No hair dryer. There's no carpet in the rooms (a plus for as far as I'm concerned). We did not hear noise from the adjacent interstate 70 but we did hear quite a bit of noise from other guests. There is a full sized refrigerator and cook top stove so the hotel I perfect for workers doing local jobs. All in all it was fine for a nights sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>The above reviews are accurate. We just needed a place to sleep before catching a morning flight. This hotel fit the bill. We were there less than 12 hours. There was one bar of soap in the bath. No shampoo. No hair dryer. There's no carpet in the rooms (a plus for as far as I'm concerned). We did not hear noise from the adjacent interstate 70 but we did hear quite a bit of noise from other guests. There is a full sized refrigerator and cook top stove so the hotel I perfect for workers doing local jobs. All in all it was fine for a nights sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r316094993-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>316094993</t>
+  </si>
+  <si>
+    <t>10/04/2015</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Great hotel. Very helpful and friendly staff.  Would definitely recommend this hotel.  The rooms are a nice size. On site laundry is a plus. At first I had trouble connecting to the free WiFi but the staff fixed that problem in minuets.MoreShow less</t>
+  </si>
+  <si>
+    <t>jfrex08, General Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded October 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2015</t>
+  </si>
+  <si>
+    <t>Great hotel. Very helpful and friendly staff.  Would definitely recommend this hotel.  The rooms are a nice size. On site laundry is a plus. At first I had trouble connecting to the free WiFi but the staff fixed that problem in minuets.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r315648499-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>315648499</t>
+  </si>
+  <si>
+    <t>10/02/2015</t>
+  </si>
+  <si>
+    <t>Safe, clean, no frills place to bed down.</t>
+  </si>
+  <si>
+    <t>Just opened in September 2015 so everything is brand new.  It's 15mins from the airport.  Our room had a full size fridge, a full sink, and a 2 burner stove top.  There's no ice machine, no pool, no breakfast, and no shampoo or conditioner provided.  There are ice trays in the freezer.  There's also no carpet in the whole place. I guess so it's easier to clean.  The hardish wood floors and hard plastic chairs in the room were not too comfortable.  The single elevator was sometimes slow.  Also, no airport shuttle but the guy upfront said he could arrange a taxi for us.  Despite these inconveniences, it suited us for the 1 night we needed.   Seems to be geared toward the extended stay crowd instead of travelers so if your looking for the typical hotel extras, you might not like this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>Just opened in September 2015 so everything is brand new.  It's 15mins from the airport.  Our room had a full size fridge, a full sink, and a 2 burner stove top.  There's no ice machine, no pool, no breakfast, and no shampoo or conditioner provided.  There are ice trays in the freezer.  There's also no carpet in the whole place. I guess so it's easier to clean.  The hardish wood floors and hard plastic chairs in the room were not too comfortable.  The single elevator was sometimes slow.  Also, no airport shuttle but the guy upfront said he could arrange a taxi for us.  Despite these inconveniences, it suited us for the 1 night we needed.   Seems to be geared toward the extended stay crowd instead of travelers so if your looking for the typical hotel extras, you might not like this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r314108312-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>314108312</t>
+  </si>
+  <si>
+    <t>09/27/2015</t>
+  </si>
+  <si>
+    <t>Excellent new property</t>
+  </si>
+  <si>
+    <t>Nice new hotel with great service. Well located next to the highway but there was no noise noticed in the room. Comfortable beds and good selection of channels for the TV. Much nicer than other extended stay alternatives nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>jfrex08, General Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded September 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2015</t>
+  </si>
+  <si>
+    <t>Nice new hotel with great service. Well located next to the highway but there was no noise noticed in the room. Comfortable beds and good selection of channels for the TV. Much nicer than other extended stay alternatives nearby.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1933,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1965,4042 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>81</v>
+      </c>
+      <c r="X6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>94</v>
+      </c>
+      <c r="X7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>103</v>
+      </c>
+      <c r="X8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>103</v>
+      </c>
+      <c r="X9" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>123</v>
+      </c>
+      <c r="O11" t="s">
+        <v>124</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X11" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>133</v>
+      </c>
+      <c r="O12" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>125</v>
+      </c>
+      <c r="X12" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>133</v>
+      </c>
+      <c r="O13" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>140</v>
+      </c>
+      <c r="X13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>148</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>149</v>
+      </c>
+      <c r="X14" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L15" t="s">
+        <v>156</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>157</v>
+      </c>
+      <c r="O15" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>158</v>
+      </c>
+      <c r="X15" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>162</v>
+      </c>
+      <c r="J16" t="s">
+        <v>163</v>
+      </c>
+      <c r="K16" t="s">
+        <v>164</v>
+      </c>
+      <c r="L16" t="s">
+        <v>165</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>166</v>
+      </c>
+      <c r="O16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>158</v>
+      </c>
+      <c r="X16" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" t="s">
+        <v>171</v>
+      </c>
+      <c r="L17" t="s">
+        <v>172</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>173</v>
+      </c>
+      <c r="O17" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>158</v>
+      </c>
+      <c r="X17" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>176</v>
+      </c>
+      <c r="J18" t="s">
+        <v>177</v>
+      </c>
+      <c r="K18" t="s">
+        <v>178</v>
+      </c>
+      <c r="L18" t="s">
+        <v>179</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>180</v>
+      </c>
+      <c r="O18" t="s">
+        <v>124</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>181</v>
+      </c>
+      <c r="X18" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>185</v>
+      </c>
+      <c r="J19" t="s">
+        <v>177</v>
+      </c>
+      <c r="K19" t="s">
+        <v>186</v>
+      </c>
+      <c r="L19" t="s">
+        <v>187</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>180</v>
+      </c>
+      <c r="O19" t="s">
+        <v>124</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>181</v>
+      </c>
+      <c r="X19" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>190</v>
+      </c>
+      <c r="J20" t="s">
+        <v>191</v>
+      </c>
+      <c r="K20" t="s">
+        <v>192</v>
+      </c>
+      <c r="L20" t="s">
+        <v>193</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>173</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>181</v>
+      </c>
+      <c r="X20" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>195</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>196</v>
+      </c>
+      <c r="J21" t="s">
+        <v>191</v>
+      </c>
+      <c r="K21" t="s">
+        <v>197</v>
+      </c>
+      <c r="L21" t="s">
+        <v>198</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>180</v>
+      </c>
+      <c r="O21" t="s">
+        <v>124</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>181</v>
+      </c>
+      <c r="X21" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>201</v>
+      </c>
+      <c r="J22" t="s">
+        <v>191</v>
+      </c>
+      <c r="K22" t="s">
+        <v>202</v>
+      </c>
+      <c r="L22" t="s">
+        <v>203</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>180</v>
+      </c>
+      <c r="O22" t="s">
+        <v>204</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>181</v>
+      </c>
+      <c r="X22" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>206</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>207</v>
+      </c>
+      <c r="J23" t="s">
+        <v>208</v>
+      </c>
+      <c r="K23" t="s">
+        <v>209</v>
+      </c>
+      <c r="L23" t="s">
+        <v>210</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>157</v>
+      </c>
+      <c r="O23" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>211</v>
+      </c>
+      <c r="X23" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>214</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>215</v>
+      </c>
+      <c r="J24" t="s">
+        <v>216</v>
+      </c>
+      <c r="K24" t="s">
+        <v>217</v>
+      </c>
+      <c r="L24" t="s">
+        <v>218</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>219</v>
+      </c>
+      <c r="O24" t="s">
+        <v>80</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>220</v>
+      </c>
+      <c r="X24" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>224</v>
+      </c>
+      <c r="J25" t="s">
+        <v>216</v>
+      </c>
+      <c r="K25" t="s">
+        <v>225</v>
+      </c>
+      <c r="L25" t="s">
+        <v>226</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>173</v>
+      </c>
+      <c r="O25" t="s">
+        <v>80</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>220</v>
+      </c>
+      <c r="X25" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>228</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>229</v>
+      </c>
+      <c r="J26" t="s">
+        <v>230</v>
+      </c>
+      <c r="K26" t="s">
+        <v>231</v>
+      </c>
+      <c r="L26" t="s">
+        <v>232</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>173</v>
+      </c>
+      <c r="O26" t="s">
+        <v>70</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>220</v>
+      </c>
+      <c r="X26" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>234</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>235</v>
+      </c>
+      <c r="J27" t="s">
+        <v>236</v>
+      </c>
+      <c r="K27" t="s">
+        <v>237</v>
+      </c>
+      <c r="L27" t="s">
+        <v>238</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>239</v>
+      </c>
+      <c r="O27" t="s">
+        <v>80</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>240</v>
+      </c>
+      <c r="X27" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>244</v>
+      </c>
+      <c r="J28" t="s">
+        <v>245</v>
+      </c>
+      <c r="K28" t="s">
+        <v>246</v>
+      </c>
+      <c r="L28" t="s">
+        <v>247</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>239</v>
+      </c>
+      <c r="O28" t="s">
+        <v>80</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>240</v>
+      </c>
+      <c r="X28" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>249</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>250</v>
+      </c>
+      <c r="J29" t="s">
+        <v>251</v>
+      </c>
+      <c r="K29" t="s">
+        <v>252</v>
+      </c>
+      <c r="L29" t="s">
+        <v>253</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>239</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>240</v>
+      </c>
+      <c r="X29" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>255</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>256</v>
+      </c>
+      <c r="J30" t="s">
+        <v>257</v>
+      </c>
+      <c r="K30" t="s">
+        <v>258</v>
+      </c>
+      <c r="L30" t="s">
+        <v>259</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>239</v>
+      </c>
+      <c r="O30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>240</v>
+      </c>
+      <c r="X30" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>261</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>262</v>
+      </c>
+      <c r="J31" t="s">
+        <v>263</v>
+      </c>
+      <c r="K31" t="s">
+        <v>264</v>
+      </c>
+      <c r="L31" t="s">
+        <v>265</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>266</v>
+      </c>
+      <c r="O31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>267</v>
+      </c>
+      <c r="X31" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>270</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>271</v>
+      </c>
+      <c r="J32" t="s">
+        <v>272</v>
+      </c>
+      <c r="K32" t="s">
+        <v>273</v>
+      </c>
+      <c r="L32" t="s">
+        <v>274</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>275</v>
+      </c>
+      <c r="O32" t="s">
+        <v>80</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>267</v>
+      </c>
+      <c r="X32" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>277</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>278</v>
+      </c>
+      <c r="J33" t="s">
+        <v>279</v>
+      </c>
+      <c r="K33" t="s">
+        <v>280</v>
+      </c>
+      <c r="L33" t="s">
+        <v>281</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>266</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>267</v>
+      </c>
+      <c r="X33" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>283</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>284</v>
+      </c>
+      <c r="J34" t="s">
+        <v>285</v>
+      </c>
+      <c r="K34" t="s">
+        <v>286</v>
+      </c>
+      <c r="L34" t="s">
+        <v>287</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>266</v>
+      </c>
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>267</v>
+      </c>
+      <c r="X34" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>289</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>290</v>
+      </c>
+      <c r="J35" t="s">
+        <v>291</v>
+      </c>
+      <c r="K35" t="s">
+        <v>292</v>
+      </c>
+      <c r="L35" t="s">
+        <v>293</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>275</v>
+      </c>
+      <c r="O35" t="s">
+        <v>204</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>267</v>
+      </c>
+      <c r="X35" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>295</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>296</v>
+      </c>
+      <c r="J36" t="s">
+        <v>297</v>
+      </c>
+      <c r="K36" t="s">
+        <v>298</v>
+      </c>
+      <c r="L36" t="s">
+        <v>299</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>275</v>
+      </c>
+      <c r="O36" t="s">
+        <v>70</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>267</v>
+      </c>
+      <c r="X36" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>301</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>302</v>
+      </c>
+      <c r="J37" t="s">
+        <v>297</v>
+      </c>
+      <c r="K37" t="s">
+        <v>303</v>
+      </c>
+      <c r="L37" t="s">
+        <v>304</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>275</v>
+      </c>
+      <c r="O37" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>267</v>
+      </c>
+      <c r="X37" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>306</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>307</v>
+      </c>
+      <c r="J38" t="s">
+        <v>308</v>
+      </c>
+      <c r="K38" t="s">
+        <v>309</v>
+      </c>
+      <c r="L38" t="s">
+        <v>310</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>311</v>
+      </c>
+      <c r="O38" t="s">
+        <v>80</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>312</v>
+      </c>
+      <c r="X38" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>315</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>316</v>
+      </c>
+      <c r="J39" t="s">
+        <v>317</v>
+      </c>
+      <c r="K39" t="s">
+        <v>318</v>
+      </c>
+      <c r="L39" t="s">
+        <v>319</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>311</v>
+      </c>
+      <c r="O39" t="s">
+        <v>80</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>320</v>
+      </c>
+      <c r="X39" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>323</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>324</v>
+      </c>
+      <c r="J40" t="s">
+        <v>325</v>
+      </c>
+      <c r="K40" t="s">
+        <v>326</v>
+      </c>
+      <c r="L40" t="s">
+        <v>327</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>328</v>
+      </c>
+      <c r="O40" t="s">
+        <v>60</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>329</v>
+      </c>
+      <c r="X40" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>332</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>333</v>
+      </c>
+      <c r="J41" t="s">
+        <v>334</v>
+      </c>
+      <c r="K41" t="s">
+        <v>335</v>
+      </c>
+      <c r="L41" t="s">
+        <v>336</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>328</v>
+      </c>
+      <c r="O41" t="s">
+        <v>60</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>337</v>
+      </c>
+      <c r="X41" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>340</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>341</v>
+      </c>
+      <c r="J42" t="s">
+        <v>342</v>
+      </c>
+      <c r="K42" t="s">
+        <v>343</v>
+      </c>
+      <c r="L42" t="s">
+        <v>344</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>328</v>
+      </c>
+      <c r="O42" t="s">
+        <v>124</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>345</v>
+      </c>
+      <c r="X42" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>348</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>349</v>
+      </c>
+      <c r="J43" t="s">
+        <v>350</v>
+      </c>
+      <c r="K43" t="s">
+        <v>351</v>
+      </c>
+      <c r="L43" t="s">
+        <v>352</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>353</v>
+      </c>
+      <c r="O43" t="s">
+        <v>80</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>345</v>
+      </c>
+      <c r="X43" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>355</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>356</v>
+      </c>
+      <c r="J44" t="s">
+        <v>357</v>
+      </c>
+      <c r="K44" t="s">
+        <v>358</v>
+      </c>
+      <c r="L44" t="s">
+        <v>359</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>353</v>
+      </c>
+      <c r="O44" t="s">
+        <v>204</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>360</v>
+      </c>
+      <c r="X44" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>363</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>364</v>
+      </c>
+      <c r="J45" t="s">
+        <v>365</v>
+      </c>
+      <c r="K45" t="s">
+        <v>366</v>
+      </c>
+      <c r="L45" t="s">
+        <v>367</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>368</v>
+      </c>
+      <c r="O45" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>369</v>
+      </c>
+      <c r="X45" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>372</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>373</v>
+      </c>
+      <c r="J46" t="s">
+        <v>374</v>
+      </c>
+      <c r="K46" t="s">
+        <v>375</v>
+      </c>
+      <c r="L46" t="s">
+        <v>376</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>377</v>
+      </c>
+      <c r="O46" t="s">
+        <v>60</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>378</v>
+      </c>
+      <c r="X46" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>381</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>382</v>
+      </c>
+      <c r="J47" t="s">
+        <v>383</v>
+      </c>
+      <c r="K47" t="s">
+        <v>384</v>
+      </c>
+      <c r="L47" t="s">
+        <v>385</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>386</v>
+      </c>
+      <c r="X47" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>389</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>390</v>
+      </c>
+      <c r="J48" t="s">
+        <v>391</v>
+      </c>
+      <c r="K48" t="s">
+        <v>392</v>
+      </c>
+      <c r="L48" t="s">
+        <v>393</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>377</v>
+      </c>
+      <c r="O48" t="s">
+        <v>80</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>394</v>
+      </c>
+      <c r="X48" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>397</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>398</v>
+      </c>
+      <c r="J49" t="s">
+        <v>399</v>
+      </c>
+      <c r="K49" t="s">
+        <v>400</v>
+      </c>
+      <c r="L49" t="s">
+        <v>401</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>368</v>
+      </c>
+      <c r="O49" t="s">
+        <v>204</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>402</v>
+      </c>
+      <c r="X49" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>405</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>406</v>
+      </c>
+      <c r="J50" t="s">
+        <v>407</v>
+      </c>
+      <c r="K50" t="s">
+        <v>408</v>
+      </c>
+      <c r="L50" t="s">
+        <v>409</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>368</v>
+      </c>
+      <c r="O50" t="s">
+        <v>204</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>410</v>
+      </c>
+      <c r="X50" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>413</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>414</v>
+      </c>
+      <c r="J51" t="s">
+        <v>415</v>
+      </c>
+      <c r="K51" t="s">
+        <v>416</v>
+      </c>
+      <c r="L51" t="s">
+        <v>417</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>418</v>
+      </c>
+      <c r="X51" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>421</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>422</v>
+      </c>
+      <c r="J52" t="s">
+        <v>423</v>
+      </c>
+      <c r="K52" t="s">
+        <v>252</v>
+      </c>
+      <c r="L52" t="s">
+        <v>424</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>425</v>
+      </c>
+      <c r="O52" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>418</v>
+      </c>
+      <c r="X52" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>427</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>428</v>
+      </c>
+      <c r="J53" t="s">
+        <v>423</v>
+      </c>
+      <c r="K53" t="s">
+        <v>429</v>
+      </c>
+      <c r="L53" t="s">
+        <v>430</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>431</v>
+      </c>
+      <c r="O53" t="s">
+        <v>204</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>418</v>
+      </c>
+      <c r="X53" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>433</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>434</v>
+      </c>
+      <c r="J54" t="s">
+        <v>435</v>
+      </c>
+      <c r="K54" t="s">
+        <v>436</v>
+      </c>
+      <c r="L54" t="s">
+        <v>437</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>368</v>
+      </c>
+      <c r="O54" t="s">
+        <v>60</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>418</v>
+      </c>
+      <c r="X54" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>439</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>440</v>
+      </c>
+      <c r="J55" t="s">
+        <v>441</v>
+      </c>
+      <c r="K55" t="s">
+        <v>442</v>
+      </c>
+      <c r="L55" t="s">
+        <v>443</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>368</v>
+      </c>
+      <c r="O55" t="s">
+        <v>70</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>418</v>
+      </c>
+      <c r="X55" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>445</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>446</v>
+      </c>
+      <c r="J56" t="s">
+        <v>447</v>
+      </c>
+      <c r="K56" t="s">
+        <v>448</v>
+      </c>
+      <c r="L56" t="s">
+        <v>449</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>431</v>
+      </c>
+      <c r="O56" t="s">
+        <v>60</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>418</v>
+      </c>
+      <c r="X56" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>451</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>452</v>
+      </c>
+      <c r="J57" t="s">
+        <v>447</v>
+      </c>
+      <c r="K57" t="s">
+        <v>453</v>
+      </c>
+      <c r="L57" t="s">
+        <v>454</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>455</v>
+      </c>
+      <c r="O57" t="s">
+        <v>204</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>418</v>
+      </c>
+      <c r="X57" t="s">
+        <v>419</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>457</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>458</v>
+      </c>
+      <c r="J58" t="s">
+        <v>459</v>
+      </c>
+      <c r="K58" t="s">
+        <v>460</v>
+      </c>
+      <c r="L58" t="s">
+        <v>461</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>431</v>
+      </c>
+      <c r="O58" t="s">
+        <v>80</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>462</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>463</v>
+      </c>
+      <c r="J59" t="s">
+        <v>464</v>
+      </c>
+      <c r="K59" t="s">
+        <v>465</v>
+      </c>
+      <c r="L59" t="s">
+        <v>466</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>455</v>
+      </c>
+      <c r="O59" t="s">
+        <v>80</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>467</v>
+      </c>
+      <c r="X59" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>470</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>471</v>
+      </c>
+      <c r="J60" t="s">
+        <v>472</v>
+      </c>
+      <c r="K60" t="s">
+        <v>473</v>
+      </c>
+      <c r="L60" t="s">
+        <v>474</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>455</v>
+      </c>
+      <c r="O60" t="s">
+        <v>80</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>475</v>
+      </c>
+      <c r="X60" t="s">
+        <v>476</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>478</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>479</v>
+      </c>
+      <c r="J61" t="s">
+        <v>480</v>
+      </c>
+      <c r="K61" t="s">
+        <v>481</v>
+      </c>
+      <c r="L61" t="s">
+        <v>482</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>431</v>
+      </c>
+      <c r="O61" t="s">
+        <v>80</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>475</v>
+      </c>
+      <c r="X61" t="s">
+        <v>476</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>484</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>485</v>
+      </c>
+      <c r="J62" t="s">
+        <v>486</v>
+      </c>
+      <c r="K62" t="s">
+        <v>487</v>
+      </c>
+      <c r="L62" t="s">
+        <v>488</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>431</v>
+      </c>
+      <c r="O62" t="s">
+        <v>60</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>489</v>
+      </c>
+      <c r="X62" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>492</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>493</v>
+      </c>
+      <c r="J63" t="s">
+        <v>494</v>
+      </c>
+      <c r="K63" t="s">
+        <v>495</v>
+      </c>
+      <c r="L63" t="s">
+        <v>496</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>455</v>
+      </c>
+      <c r="O63" t="s">
+        <v>80</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>489</v>
+      </c>
+      <c r="X63" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>498</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>499</v>
+      </c>
+      <c r="J64" t="s">
+        <v>500</v>
+      </c>
+      <c r="K64" t="s">
+        <v>501</v>
+      </c>
+      <c r="L64" t="s">
+        <v>502</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>455</v>
+      </c>
+      <c r="O64" t="s">
+        <v>204</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>503</v>
+      </c>
+      <c r="X64" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>505</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_283.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_283.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="799">
   <si>
     <t>STR#</t>
   </si>
@@ -147,18 +147,114 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/05/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r610988354-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>29144</t>
+  </si>
+  <si>
+    <t>8445792</t>
+  </si>
+  <si>
+    <t>610988354</t>
+  </si>
+  <si>
+    <t>August 27, 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r609054519-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>609054519</t>
+  </si>
+  <si>
+    <t>08/21/2018</t>
+  </si>
+  <si>
+    <t>Steer Clear of this place...</t>
+  </si>
+  <si>
+    <t>Worst place ever.  The website makes it look look like a nice facility but the minute I pulled into the parking lot, I wanted to leave, but had just driven 12 hours.  The parking lot is full of strange characters and derelicts.  People are sleeping in their cars, I really thought my car would be broken into or stolen leaving it in this lot.  I imagine the front desk area to be modeled after a prison check in.  The place stunk.  The hallways smelled like someone was cooking possum or road kill in their room.  There isn't a dormitory on the planet that smells as bad as this place.  I later moved my car to the other side of the building, but expected it to be gone in the morning.  Room was spartan, they have a mini-kitchen but no plates, utensils, not even paper towels, I guess you have to buy those, but not even the bare essentials, not even a plastic spoon or cup.  The stench in the room was as bad as the hallways.  The sitting chair (see picture), was ripped and burned with a cigarette, looked like it had hair growing out of it. UGH. The bathmat was totally disgusting, looked like there was blood all over it. (See picture) Not surprised at anything at this horrible place.  Only one bag cart since the other one was "broken" probably has been broken for years.  Looks in this...Worst place ever.  The website makes it look look like a nice facility but the minute I pulled into the parking lot, I wanted to leave, but had just driven 12 hours.  The parking lot is full of strange characters and derelicts.  People are sleeping in their cars, I really thought my car would be broken into or stolen leaving it in this lot.  I imagine the front desk area to be modeled after a prison check in.  The place stunk.  The hallways smelled like someone was cooking possum or road kill in their room.  There isn't a dormitory on the planet that smells as bad as this place.  I later moved my car to the other side of the building, but expected it to be gone in the morning.  Room was spartan, they have a mini-kitchen but no plates, utensils, not even paper towels, I guess you have to buy those, but not even the bare essentials, not even a plastic spoon or cup.  The stench in the room was as bad as the hallways.  The sitting chair (see picture), was ripped and burned with a cigarette, looked like it had hair growing out of it. UGH. The bathmat was totally disgusting, looked like there was blood all over it. (See picture) Not surprised at anything at this horrible place.  Only one bag cart since the other one was "broken" probably has been broken for years.  Looks in this case are deceiving, it looks like a nice property on the website, but it was the worst experience of my business travel life in about 30 years.  Front desk personnel were totally unfriendly, just yucking it up with some friend on the other side of the counter, ignoring the customer.  I will NEVER stay at another WoodSpring Suites (what suites?), this place is the bottom of the food chain.  Disgusting.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Julia R, Guest Relations at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Worst place ever.  The website makes it look look like a nice facility but the minute I pulled into the parking lot, I wanted to leave, but had just driven 12 hours.  The parking lot is full of strange characters and derelicts.  People are sleeping in their cars, I really thought my car would be broken into or stolen leaving it in this lot.  I imagine the front desk area to be modeled after a prison check in.  The place stunk.  The hallways smelled like someone was cooking possum or road kill in their room.  There isn't a dormitory on the planet that smells as bad as this place.  I later moved my car to the other side of the building, but expected it to be gone in the morning.  Room was spartan, they have a mini-kitchen but no plates, utensils, not even paper towels, I guess you have to buy those, but not even the bare essentials, not even a plastic spoon or cup.  The stench in the room was as bad as the hallways.  The sitting chair (see picture), was ripped and burned with a cigarette, looked like it had hair growing out of it. UGH. The bathmat was totally disgusting, looked like there was blood all over it. (See picture) Not surprised at anything at this horrible place.  Only one bag cart since the other one was "broken" probably has been broken for years.  Looks in this...Worst place ever.  The website makes it look look like a nice facility but the minute I pulled into the parking lot, I wanted to leave, but had just driven 12 hours.  The parking lot is full of strange characters and derelicts.  People are sleeping in their cars, I really thought my car would be broken into or stolen leaving it in this lot.  I imagine the front desk area to be modeled after a prison check in.  The place stunk.  The hallways smelled like someone was cooking possum or road kill in their room.  There isn't a dormitory on the planet that smells as bad as this place.  I later moved my car to the other side of the building, but expected it to be gone in the morning.  Room was spartan, they have a mini-kitchen but no plates, utensils, not even paper towels, I guess you have to buy those, but not even the bare essentials, not even a plastic spoon or cup.  The stench in the room was as bad as the hallways.  The sitting chair (see picture), was ripped and burned with a cigarette, looked like it had hair growing out of it. UGH. The bathmat was totally disgusting, looked like there was blood all over it. (See picture) Not surprised at anything at this horrible place.  Only one bag cart since the other one was "broken" probably has been broken for years.  Looks in this case are deceiving, it looks like a nice property on the website, but it was the worst experience of my business travel life in about 30 years.  Front desk personnel were totally unfriendly, just yucking it up with some friend on the other side of the counter, ignoring the customer.  I will NEVER stay at another WoodSpring Suites (what suites?), this place is the bottom of the food chain.  Disgusting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r597366211-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>597366211</t>
+  </si>
+  <si>
+    <t>07/18/2018</t>
+  </si>
+  <si>
+    <t>They towed a customer's car</t>
+  </si>
+  <si>
+    <t>They towed my car and had it crushed with third of my possessions inside of it. And the management refuses to take responsibility. The staff was also rude and unsympathetic to the incident. If you are here for a very extended stay expect their welcome to become extremely stale.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Julia R, Guest Relations at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded July 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2018</t>
+  </si>
+  <si>
+    <t>They towed my car and had it crushed with third of my possessions inside of it. And the management refuses to take responsibility. The staff was also rude and unsympathetic to the incident. If you are here for a very extended stay expect their welcome to become extremely stale.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r590225860-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>590225860</t>
+  </si>
+  <si>
+    <t>06/24/2018</t>
+  </si>
+  <si>
+    <t>Not clean, lots of dirt on floor and around base board</t>
+  </si>
+  <si>
+    <t>The staff was friendly but too many details were not taken care of. One important detail that was overlooked was the cleanliness of the room. You could wipe a wash cloth across the floor and turn it nearly black with dirt. There was also dirt and dust bunnies along the base board of the walls and along side the bed aisles. The room was not fully prepared when we  arrived inside either. The shower curtain was missing altogether and the staff had to bring it before we could shower. Not really a big deal but it becomes more significant when combined with the cleanliness issue. The room had 2 beds. The bed I slept on was wonky or out of level or lumpy or something. I woke up at about 1:30am because of it one time. I will find a better place for a bit more $ next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Julia R, Guest Relations at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded June 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2018</t>
+  </si>
+  <si>
+    <t>The staff was friendly but too many details were not taken care of. One important detail that was overlooked was the cleanliness of the room. You could wipe a wash cloth across the floor and turn it nearly black with dirt. There was also dirt and dust bunnies along the base board of the walls and along side the bed aisles. The room was not fully prepared when we  arrived inside either. The shower curtain was missing altogether and the staff had to bring it before we could shower. Not really a big deal but it becomes more significant when combined with the cleanliness issue. The room had 2 beds. The bed I slept on was wonky or out of level or lumpy or something. I woke up at about 1:30am because of it one time. I will find a better place for a bit more $ next time.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r587303295-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
   </si>
   <si>
-    <t>29144</t>
-  </si>
-  <si>
-    <t>8445792</t>
-  </si>
-  <si>
     <t>587303295</t>
   </si>
   <si>
@@ -198,9 +294,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Julia R, Guest Relations at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded June 10, 2018</t>
   </si>
   <si>
@@ -240,6 +333,62 @@
     <t>We stayed at this hotel on a trip to see our newborn grandson.  The employees were very friendly and accommodating.  The room had a small kitchenette, which was very nice.  The only drawback was no daily maid service, so make your own bed!  The hotel offered hospital rates, which was very helpful to us, as we wanted to stay as long as possible, due to our grandson having medical issues.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r574630862-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>574630862</t>
+  </si>
+  <si>
+    <t>04/20/2018</t>
+  </si>
+  <si>
+    <t>Okay for overnight</t>
+  </si>
+  <si>
+    <t>We has an extremely basic hotel room with mini-kitchen. The mini-kitchen area had a microwave, a large (4ft) refrigerator with freezer, a two burner range, and a sink. But the only eating/cooking equipment provided were two plastic cups. There were no dishes, other cups, flatware, or cooking equipment.  Coffee, sugar, and coffee cups were available in the lobby but no stirrers were provided for the coffee. After our stay I found on their website where it says bring your own dishes, pots and pans, etc. - you have to really hunt for that information. Would have been nice to know ahead of our arrival.  The bathroom had a shower/tub, toilet, and a sink.  The water in the shower only got warm, not hot. The bed was comfortable but the pillows were lumpy. The room was quiet and clean. The room did provide toilet paper, soap, shampoo, towels and bed linens. The room had a clothes rod, two drawers, and a TV.  The hotel is next to the interstate highway but noise was not an issue.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Julia R, Guest Relations at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded May 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2018</t>
+  </si>
+  <si>
+    <t>We has an extremely basic hotel room with mini-kitchen. The mini-kitchen area had a microwave, a large (4ft) refrigerator with freezer, a two burner range, and a sink. But the only eating/cooking equipment provided were two plastic cups. There were no dishes, other cups, flatware, or cooking equipment.  Coffee, sugar, and coffee cups were available in the lobby but no stirrers were provided for the coffee. After our stay I found on their website where it says bring your own dishes, pots and pans, etc. - you have to really hunt for that information. Would have been nice to know ahead of our arrival.  The bathroom had a shower/tub, toilet, and a sink.  The water in the shower only got warm, not hot. The bed was comfortable but the pillows were lumpy. The room was quiet and clean. The room did provide toilet paper, soap, shampoo, towels and bed linens. The room had a clothes rod, two drawers, and a TV.  The hotel is next to the interstate highway but noise was not an issue.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r572555163-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>572555163</t>
+  </si>
+  <si>
+    <t>04/10/2018</t>
+  </si>
+  <si>
+    <t>Not for anyone needing an extended stay for more than a few weeks</t>
+  </si>
+  <si>
+    <t>I am a traveling software developer and have spent the past 7+ months here. The other reviews are par for course on what to expect from the building and rooms. The staff is the real deal breaker here. 
+If you are in need of an extended stay for longer than a week or two, go elsewhere. The staff somehow didn'tI am a traveling software developer and have spent the past 7+ months here. The other reviews are par for course on what to expect from the building and rooms. The staff is the real deal breaker here. 
+If you are in need of an extended stay for longer than a week or two, go elsewhere. The staff somehow didn't recognize my car in the parking lot after the many months and thousands of dollars spent there, and towed it. They towed the car of a paying customer who had been there for half a year.
+It took 2 days to find my car (4 if you count the weekend when the tow yards were closed). The staff had no clue where my car was towed and only directed me to a "All unauthorized vehicles will be towed" sign with contact information to a tow company that didn't have my car. Keep in mind that I have been at this extended stay for over 7 months at almost $1800 per.
+Katie, the staff member, who I believe is the GM, who...I am a traveling software developer and have spent the past 7+ months here. The other reviews are par for course on what to expect from the building and rooms. The staff is the real deal breaker here. If you are in need of an extended stay for longer than a week or two, go elsewhere. The staff somehow didn'tI am a traveling software developer and have spent the past 7+ months here. The other reviews are par for course on what to expect from the building and rooms. The staff is the real deal breaker here. If you are in need of an extended stay for longer than a week or two, go elsewhere. The staff somehow didn't recognize my car in the parking lot after the many months and thousands of dollars spent there, and towed it. They towed the car of a paying customer who had been there for half a year.It took 2 days to find my car (4 if you count the weekend when the tow yards were closed). The staff had no clue where my car was towed and only directed me to a "All unauthorized vehicles will be towed" sign with contact information to a tow company that didn't have my car. Keep in mind that I have been at this extended stay for over 7 months at almost $1800 per.Katie, the staff member, who I believe is the GM, who also is the one who had my car towed, was unapologetic and suggested that this was somehow my fault. I, a paying customer, had my car wrongfully (and maybe illegally) towed, because it had been in the lot for months. My only vehicle, that I am in every single day, was somehow abandoned. recognize my car in the parking lot after the many months and thousands of dollars spent there, and towed it. They towed the car of a paying customer who had been there for half a year.It took 2 days to find my car (4 if you count the weekend when the tow yards were closed). The staff had no clue where my car was towed and only directed me to a "All unauthorized vehicles will be towed" sign with contact information to a tow company that didn't have my car. Keep in mind that I have been at this extended stay for over 7 months at almost $1800 per.Katie, the staff member, who I believe is the GM, who also is the one who had my car towed, was unapologetic and suggested that this was somehow my fault. I, a paying customer, had my car wrongfully (and maybe illegally) towed, because it had been in the lot for months. My only vehicle, that I am in every single day, was somehow abandoned.I'm filling a case in small claims to recoup my losses for my vehicle and lost time. Find somewhere else if you are working/settling in the area and need an extended stay for more than a few weeks. Paying customers mean nothing to these people after they already have your money.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>I am a traveling software developer and have spent the past 7+ months here. The other reviews are par for course on what to expect from the building and rooms. The staff is the real deal breaker here. 
+If you are in need of an extended stay for longer than a week or two, go elsewhere. The staff somehow didn'tI am a traveling software developer and have spent the past 7+ months here. The other reviews are par for course on what to expect from the building and rooms. The staff is the real deal breaker here. 
+If you are in need of an extended stay for longer than a week or two, go elsewhere. The staff somehow didn't recognize my car in the parking lot after the many months and thousands of dollars spent there, and towed it. They towed the car of a paying customer who had been there for half a year.
+It took 2 days to find my car (4 if you count the weekend when the tow yards were closed). The staff had no clue where my car was towed and only directed me to a "All unauthorized vehicles will be towed" sign with contact information to a tow company that didn't have my car. Keep in mind that I have been at this extended stay for over 7 months at almost $1800 per.
+Katie, the staff member, who I believe is the GM, who...I am a traveling software developer and have spent the past 7+ months here. The other reviews are par for course on what to expect from the building and rooms. The staff is the real deal breaker here. If you are in need of an extended stay for longer than a week or two, go elsewhere. The staff somehow didn'tI am a traveling software developer and have spent the past 7+ months here. The other reviews are par for course on what to expect from the building and rooms. The staff is the real deal breaker here. If you are in need of an extended stay for longer than a week or two, go elsewhere. The staff somehow didn't recognize my car in the parking lot after the many months and thousands of dollars spent there, and towed it. They towed the car of a paying customer who had been there for half a year.It took 2 days to find my car (4 if you count the weekend when the tow yards were closed). The staff had no clue where my car was towed and only directed me to a "All unauthorized vehicles will be towed" sign with contact information to a tow company that didn't have my car. Keep in mind that I have been at this extended stay for over 7 months at almost $1800 per.Katie, the staff member, who I believe is the GM, who also is the one who had my car towed, was unapologetic and suggested that this was somehow my fault. I, a paying customer, had my car wrongfully (and maybe illegally) towed, because it had been in the lot for months. My only vehicle, that I am in every single day, was somehow abandoned. recognize my car in the parking lot after the many months and thousands of dollars spent there, and towed it. They towed the car of a paying customer who had been there for half a year.It took 2 days to find my car (4 if you count the weekend when the tow yards were closed). The staff had no clue where my car was towed and only directed me to a "All unauthorized vehicles will be towed" sign with contact information to a tow company that didn't have my car. Keep in mind that I have been at this extended stay for over 7 months at almost $1800 per.Katie, the staff member, who I believe is the GM, who also is the one who had my car towed, was unapologetic and suggested that this was somehow my fault. I, a paying customer, had my car wrongfully (and maybe illegally) towed, because it had been in the lot for months. My only vehicle, that I am in every single day, was somehow abandoned.I'm filling a case in small claims to recoup my losses for my vehicle and lost time. Find somewhere else if you are working/settling in the area and need an extended stay for more than a few weeks. Paying customers mean nothing to these people after they already have your money.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r566695212-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -258,9 +407,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Julia R, Guest Relations Corporate Liaison at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded March 17, 2018</t>
   </si>
   <si>
@@ -309,6 +455,42 @@
     <t>My husband and I stayed here for a night, again this year, while my husband had tests done at medical hospital.  We stayed last year for a couple of months; while my husband was getting treatment for cancer.  This particular hotel is a shining light experience on top of us having to deal with medical issues.  Katie Peace, the manager always brightens our stay here.  She, along with the staff, are courteous and professional. The rooms are always clean and comfortable. We look forward to staying here and will continue to do so even when our hospital appointments are completed. Thank you. Carol and Nick Gonzales, Pueblo West, COMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r556114580-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>556114580</t>
+  </si>
+  <si>
+    <t>01/24/2018</t>
+  </si>
+  <si>
+    <t>Great Location &amp; Convenient!</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel with my husband during a business trip. I liked the large and clean bathroom. While my husband was away on business during the day I used the small, but nice exercise room. The hotel manager lady was very friendly and worked very hard to make sure we had a good stay. The location is excellent - near the airport and not far from downtown. The room was efficient and comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel with my husband during a business trip. I liked the large and clean bathroom. While my husband was away on business during the day I used the small, but nice exercise room. The hotel manager lady was very friendly and worked very hard to make sure we had a good stay. The location is excellent - near the airport and not far from downtown. The room was efficient and comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r556109770-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>556109770</t>
+  </si>
+  <si>
+    <t>Great Experience! Nice Stay!</t>
+  </si>
+  <si>
+    <t>My stay with my wife at this hotel was excellent. The staff was courteous and professional. Our room was clean and comfortable. The kitchenette came in very handy and my wife was able to cook meals. I would certainly stay here again - highly recommended!MoreShow less</t>
+  </si>
+  <si>
+    <t>My stay with my wife at this hotel was excellent. The staff was courteous and professional. Our room was clean and comfortable. The kitchenette came in very handy and my wife was able to cook meals. I would certainly stay here again - highly recommended!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r554672166-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -324,15 +506,6 @@
     <t>Room very clean. Laundry available. Be sure to bring toiletries, I microwaveable dishes or stove top pans. Room has fridge, microwave and stove top.  Floors are not carpeted. Can hear other in near by rooms. Staff great. Nice fitness room. If you stay 30 days would be $50 a day. Secure building. Zero smoking tolerance. You can smoke outside. A different experience but still goodMoreShow less</t>
   </si>
   <si>
-    <t>January 2018</t>
-  </si>
-  <si>
-    <t>Julia R, Guest Relations at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded June 27, 2018</t>
-  </si>
-  <si>
-    <t>Responded June 27, 2018</t>
-  </si>
-  <si>
     <t>Room very clean. Laundry available. Be sure to bring toiletries, I microwaveable dishes or stove top pans. Room has fridge, microwave and stove top.  Floors are not carpeted. Can hear other in near by rooms. Staff great. Nice fitness room. If you stay 30 days would be $50 a day. Secure building. Zero smoking tolerance. You can smoke outside. A different experience but still goodMore</t>
   </si>
   <si>
@@ -372,6 +545,48 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r546648568-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>546648568</t>
+  </si>
+  <si>
+    <t>12/11/2017</t>
+  </si>
+  <si>
+    <t>Best Hotel Stay EVER!!</t>
+  </si>
+  <si>
+    <t>My husband and I needed a hotel to stay in while we wait on the purchase of our new home. Katie and her staff have been awesome!!  The hotel is clean, and they are always there to answer any question I may have. The beds are comfortable and the rooms are roomie, and quiet. We liked it so much we are extending our stay for another few weeks.   This is a great value and just a great place to stay in general. Having laundry facility on site is a bonus we didn't get with our previous hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded December 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 19, 2017</t>
+  </si>
+  <si>
+    <t>My husband and I needed a hotel to stay in while we wait on the purchase of our new home. Katie and her staff have been awesome!!  The hotel is clean, and they are always there to answer any question I may have. The beds are comfortable and the rooms are roomie, and quiet. We liked it so much we are extending our stay for another few weeks.   This is a great value and just a great place to stay in general. Having laundry facility on site is a bonus we didn't get with our previous hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r546624321-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>546624321</t>
+  </si>
+  <si>
+    <t>Awesome hotel EVER!</t>
+  </si>
+  <si>
+    <t>The hotel is new and super clean. The staff is extreme friendly and very helpful. Ms. Holly at the front desk goes out of her way to make me feel at home and Mrs. Katie, the GM makes the BEST homemade caramel rolls. She is always cooking up a treat for all the guests! I’ve been here for months and it really is a home away for home! MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>The hotel is new and super clean. The staff is extreme friendly and very helpful. Ms. Holly at the front desk goes out of her way to make me feel at home and Mrs. Katie, the GM makes the BEST homemade caramel rolls. She is always cooking up a treat for all the guests! I’ve been here for months and it really is a home away for home! More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r529879033-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -387,18 +602,9 @@
     <t>We arrived at 1:30, was told they did not have any rooms cleaned, magically at 3, all rooms were ready, all at one time. We arrive in the room and the sheets are dingy and discolored, the floor has hair and dust on it, I do not think they clean the rooms at all. There are absolutely no amenities, no hand soup, shampoo, lotion, nothing. Hotel staff is not very warm, or welcoming had an attitude anytime they were asked a question. I forgot something in the hotel and when I called, at 2, they said they haven't cleaned the room. So, I called back, they hung-up. When I called back, she said she checked the room when we got disconnected, well I had called right back after being hung-up on, so there is no way she actually checked, the room is on the 2nd floor at the end of the hall, even with stairs you wouldn't get there in 30 seconds. So, no, I will not be staying here again, I do not trust the staff, they do not seem to clean, or have any kind of hospitality. Save yourself the hassle and stay somewhere else.MoreShow less</t>
   </si>
   <si>
-    <t>October 2017</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>Heather L, Guest Relations Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded December 19, 2017</t>
-  </si>
-  <si>
-    <t>Responded December 19, 2017</t>
-  </si>
-  <si>
     <t>We arrived at 1:30, was told they did not have any rooms cleaned, magically at 3, all rooms were ready, all at one time. We arrive in the room and the sheets are dingy and discolored, the floor has hair and dust on it, I do not think they clean the rooms at all. There are absolutely no amenities, no hand soup, shampoo, lotion, nothing. Hotel staff is not very warm, or welcoming had an attitude anytime they were asked a question. I forgot something in the hotel and when I called, at 2, they said they haven't cleaned the room. So, I called back, they hung-up. When I called back, she said she checked the room when we got disconnected, well I had called right back after being hung-up on, so there is no way she actually checked, the room is on the 2nd floor at the end of the hall, even with stairs you wouldn't get there in 30 seconds. So, no, I will not be staying here again, I do not trust the staff, they do not seem to clean, or have any kind of hospitality. Save yourself the hassle and stay somewhere else.More</t>
   </si>
   <si>
@@ -447,6 +653,70 @@
     <t>I made an account just to leave a bad review of this place. Anyone who left a good review surely works for the hotel and is trying to make this place look good. The entire place smells terrible. The rooms have nothing, and I mean nothing! There is not even an ice machine or water. If you want soap, towels, or housekeeping to change your sheets, they will charge you money. This place is worse than a motel 6 and that's not even an exaggeration. STAY AWAY!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r503690741-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>503690741</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Suprisingly Pleasant</t>
+  </si>
+  <si>
+    <t>We were so surprised by everything in this hotel. The rooms are basically a studio with Q bed, bathroom, dresser, flat tv (with cable tv), desk &amp; chair, fridge, microwave, and a 2 burner electric stove-top.
+The women working the front desk were SO nice and helpful. The cleaning lady I encountered said "Hello" to me every time she saw me/my husband. Just a stellar group of people working this hotel. 
+The location was right off highway with easy access to get on and was only about 10 miles from airport (DIA). However, for those who do not like highway driving (like me) it was an easy drive (usually about 20 minutes to downtown Denver) using city streets to get around Denver (with GPS).
+This was a vacation for my husband and I, but I still had to work a few hours each day. This hotel does offer free wi-fi, but they also offer a premium wi-fi for an additional (and reasonable) charge for the week. Absolutely worth it! I had no issues accessing my VPN for my work and had no interruptions with streaming Netflix and other tablet use.
+There is a guest laundry room, that accepts coin or credit card (not cash). There is a small workout facility that had equipment that appeared to be in working order. 
+We were so pleased with our stay there. I definitely recommend for those who are traveling on a budget or...We were so surprised by everything in this hotel. The rooms are basically a studio with Q bed, bathroom, dresser, flat tv (with cable tv), desk &amp; chair, fridge, microwave, and a 2 burner electric stove-top.The women working the front desk were SO nice and helpful. The cleaning lady I encountered said "Hello" to me every time she saw me/my husband. Just a stellar group of people working this hotel. The location was right off highway with easy access to get on and was only about 10 miles from airport (DIA). However, for those who do not like highway driving (like me) it was an easy drive (usually about 20 minutes to downtown Denver) using city streets to get around Denver (with GPS).This was a vacation for my husband and I, but I still had to work a few hours each day. This hotel does offer free wi-fi, but they also offer a premium wi-fi for an additional (and reasonable) charge for the week. Absolutely worth it! I had no issues accessing my VPN for my work and had no interruptions with streaming Netflix and other tablet use.There is a guest laundry room, that accepts coin or credit card (not cash). There is a small workout facility that had equipment that appeared to be in working order. We were so pleased with our stay there. I definitely recommend for those who are traveling on a budget or for those who don't want to stay downtown Denver.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded August 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2017</t>
+  </si>
+  <si>
+    <t>We were so surprised by everything in this hotel. The rooms are basically a studio with Q bed, bathroom, dresser, flat tv (with cable tv), desk &amp; chair, fridge, microwave, and a 2 burner electric stove-top.
+The women working the front desk were SO nice and helpful. The cleaning lady I encountered said "Hello" to me every time she saw me/my husband. Just a stellar group of people working this hotel. 
+The location was right off highway with easy access to get on and was only about 10 miles from airport (DIA). However, for those who do not like highway driving (like me) it was an easy drive (usually about 20 minutes to downtown Denver) using city streets to get around Denver (with GPS).
+This was a vacation for my husband and I, but I still had to work a few hours each day. This hotel does offer free wi-fi, but they also offer a premium wi-fi for an additional (and reasonable) charge for the week. Absolutely worth it! I had no issues accessing my VPN for my work and had no interruptions with streaming Netflix and other tablet use.
+There is a guest laundry room, that accepts coin or credit card (not cash). There is a small workout facility that had equipment that appeared to be in working order. 
+We were so pleased with our stay there. I definitely recommend for those who are traveling on a budget or...We were so surprised by everything in this hotel. The rooms are basically a studio with Q bed, bathroom, dresser, flat tv (with cable tv), desk &amp; chair, fridge, microwave, and a 2 burner electric stove-top.The women working the front desk were SO nice and helpful. The cleaning lady I encountered said "Hello" to me every time she saw me/my husband. Just a stellar group of people working this hotel. The location was right off highway with easy access to get on and was only about 10 miles from airport (DIA). However, for those who do not like highway driving (like me) it was an easy drive (usually about 20 minutes to downtown Denver) using city streets to get around Denver (with GPS).This was a vacation for my husband and I, but I still had to work a few hours each day. This hotel does offer free wi-fi, but they also offer a premium wi-fi for an additional (and reasonable) charge for the week. Absolutely worth it! I had no issues accessing my VPN for my work and had no interruptions with streaming Netflix and other tablet use.There is a guest laundry room, that accepts coin or credit card (not cash). There is a small workout facility that had equipment that appeared to be in working order. We were so pleased with our stay there. I definitely recommend for those who are traveling on a budget or for those who don't want to stay downtown Denver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r497127656-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>497127656</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t>Nothing but drama</t>
+  </si>
+  <si>
+    <t>The hotel is nice enough (except for the DISGUSTING floors that turn your feet black) but management &amp; the staff are all gossip hounds and extremely nosey. Some of the desk managers are very snippy as well. People party a LOT and there and the cops are called regularly. Very low-rent, in my opinion. Won't be staying again - HERE'S A TIP: Crosslands is right next door! MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is nice enough (except for the DISGUSTING floors that turn your feet black) but management &amp; the staff are all gossip hounds and extremely nosey. Some of the desk managers are very snippy as well. People party a LOT and there and the cops are called regularly. Very low-rent, in my opinion. Won't be staying again - HERE'S A TIP: Crosslands is right next door! More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r496507368-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -462,15 +732,6 @@
     <t>Very curious and they make a point of getting to know the guests and make it an enjoyable stay. Every problem I've seen come up has been taken care of as quickly as possible by the wonderful staff. The manager is especially friendly and helpful.MoreShow less</t>
   </si>
   <si>
-    <t>June 2017</t>
-  </si>
-  <si>
-    <t>Heather L, Guest Relations Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded July 10, 2017</t>
-  </si>
-  <si>
-    <t>Responded July 10, 2017</t>
-  </si>
-  <si>
     <t>Very curious and they make a point of getting to know the guests and make it an enjoyable stay. Every problem I've seen come up has been taken care of as quickly as possible by the wonderful staff. The manager is especially friendly and helpful.More</t>
   </si>
   <si>
@@ -522,6 +783,42 @@
     <t>Absolutely zero customer service. The hotel didn't have any toiletries. I had to GO OUT TO STORE at night 11pm to BUY BASIC TOILET soap. Disgusting that no one would provide basic necessities. There's NO ONE AT FRONT DESK after 9pm and they only call staff for a "real emergency" probably like you are dying or something. Didn't expect such disgusting service from a hotel in the US.WILL NEVER STAY HERE AND RECOMMEND OTHERS TO RUN AS FAR AS POSSIBLE FROM HEREMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r485650967-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>485650967</t>
+  </si>
+  <si>
+    <t>One month stay had a great time</t>
+  </si>
+  <si>
+    <t>I stayed here for a month while waiting to close on a house. I would stay here again in a heartbeat and recommend it to family that came to visit.The good- large kitchen, refrigerator, 2 burners to cook with and a freezer, comfortable bed, large tv with cable, air condition in room, no problem with hot water in the shower/ tub. Workout room on 1st floor treadmill and full body gym. Large washer and dryer room with 15 of each. Quiet area and everyone is really nice and friendly. Close to the airport and resturaunts, grocery stores.The bad- i wanted to stay here longer i got so comfortable here i wish i could take this hotel wherever i traveled in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I stayed here for a month while waiting to close on a house. I would stay here again in a heartbeat and recommend it to family that came to visit.The good- large kitchen, refrigerator, 2 burners to cook with and a freezer, comfortable bed, large tv with cable, air condition in room, no problem with hot water in the shower/ tub. Workout room on 1st floor treadmill and full body gym. Large washer and dryer room with 15 of each. Quiet area and everyone is really nice and friendly. Close to the airport and resturaunts, grocery stores.The bad- i wanted to stay here longer i got so comfortable here i wish i could take this hotel wherever i traveled in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r485362335-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>485362335</t>
+  </si>
+  <si>
+    <t>05/18/2017</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>The room looks great, very clean. The Staff is very friendly and helpful. Would stay here again in a heartbeat. The kitchenette is great a lot of space in the room. Enough room to live in. Enjoyed my stay very much.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room looks great, very clean. The Staff is very friendly and helpful. Would stay here again in a heartbeat. The kitchenette is great a lot of space in the room. Enough room to live in. Enjoyed my stay very much.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r484767167-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -585,6 +882,42 @@
     <t>Would like to say how wonderful and attentive the staff were. Katie Peace is an awesome General ManagerCaters to the public beautifully. The room we rented was very clean. A little too close to the Hwy but nice.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r477490634-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>477490634</t>
+  </si>
+  <si>
+    <t>04/20/2017</t>
+  </si>
+  <si>
+    <t>Friendly staff, fresh cookies, good parking</t>
+  </si>
+  <si>
+    <t>Stayed for 11 days, nice clean rooms, friendly staff,  always parking and right next to the interstate. Fresh cookies were available multiple days throughpout the stay. Fitness room available, plus laundry machinesMoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed for 11 days, nice clean rooms, friendly staff,  always parking and right next to the interstate. Fresh cookies were available multiple days throughpout the stay. Fitness room available, plus laundry machinesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r475638337-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>475638337</t>
+  </si>
+  <si>
+    <t>04/14/2017</t>
+  </si>
+  <si>
+    <t>M. Gibson says it's very clean and professionally managed</t>
+  </si>
+  <si>
+    <t>Very clean and professionally managed.  The opportunity stay here for a lengthy business trip. Management made to stay very easy as the hotel was very clean very quiet and very nice. Five star recommendation all the way. If you're in Aurora and lead a great place to stay go to the Woodsprings suites on 38th.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very clean and professionally managed.  The opportunity stay here for a lengthy business trip. Management made to stay very easy as the hotel was very clean very quiet and very nice. Five star recommendation all the way. If you're in Aurora and lead a great place to stay go to the Woodsprings suites on 38th.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r475283458-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -630,12 +963,51 @@
     <t>Katie and her crew truly make hotel living as much like home as you can!  They are welcoming and accommodating to all of your needs.  My room is comfortable, the hotel quiet and the fitness room and laundry are convenient.  I have been in residence for 6 weeks and would recommend it to anyone!MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Katie and her crew truly make hotel living as much like home as you can!  They are welcoming and accommodating to all of your needs.  My room is comfortable, the hotel quiet and the fitness room and laundry are convenient.  I have been in residence for 6 weeks and would recommend it to anyone!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r475019696-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>475019696</t>
+  </si>
+  <si>
+    <t>04/12/2017</t>
+  </si>
+  <si>
+    <t>super comfortable</t>
+  </si>
+  <si>
+    <t>the staff is very friendly, especially Katie, very accommodating, had an issue and spoke with her about it and she worked with me to make my stay at this location peaceful, thank you Katie, room 227, looking forward to many more vistsMoreShow less</t>
+  </si>
+  <si>
+    <t>the staff is very friendly, especially Katie, very accommodating, had an issue and spoke with her about it and she worked with me to make my stay at this location peaceful, thank you Katie, room 227, looking forward to many more vistsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r468555666-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>468555666</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>efficient and clean</t>
+  </si>
+  <si>
+    <t>hotel was minimum service but very clean. Our heat  did not work, temps were in the 20s but they quickly moved us to another room. Has stovetop but no pots or dishes. Refrig. was a plus. Great location for airpot and shopping.MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded March 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2017</t>
+  </si>
+  <si>
+    <t>hotel was minimum service but very clean. Our heat  did not work, temps were in the 20s but they quickly moved us to another room. Has stovetop but no pots or dishes. Refrig. was a plus. Great location for airpot and shopping.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r463313920-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -702,6 +1074,42 @@
     <t>It was a wonderful stay Ashley the housekeep is a wonderful asset to this hotel what ever you need She very attentive and helpful and sweet and kind.and w.a is very funny and a great asset for what he dose very happy always smileing.or room is clean the work out room is great all the staff is happy.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r454586542-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>454586542</t>
+  </si>
+  <si>
+    <t>01/24/2017</t>
+  </si>
+  <si>
+    <t>Warm and Inviting</t>
+  </si>
+  <si>
+    <t>The manager Katie and assistant manager JB are some of the nicest people I've ever met that work at a hotel. They really do go above and beyond to make your stay as amazing as it can be. My family and I stayed at this location for 2 1/2 months for work and it felt like a home away from home. Just an overall great experience and if we are ever planning on staying in denver again this is my first and only choice even just for 1 night or several nights. Thank You very much what an amazing team. The Castro'sMoreShow less</t>
+  </si>
+  <si>
+    <t>The manager Katie and assistant manager JB are some of the nicest people I've ever met that work at a hotel. They really do go above and beyond to make your stay as amazing as it can be. My family and I stayed at this location for 2 1/2 months for work and it felt like a home away from home. Just an overall great experience and if we are ever planning on staying in denver again this is my first and only choice even just for 1 night or several nights. Thank You very much what an amazing team. The Castro'sMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r452909601-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>452909601</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>good room for the money</t>
+  </si>
+  <si>
+    <t>nice room for the money. hotel new, rooms clean, comfortable bed and nice bathroom. room had stove, fridge and microwave. large tv with cable. room was very basic, wood desk and linoleum floors that looked like wood . staff friendly and free coffeeMoreShow less</t>
+  </si>
+  <si>
+    <t>nice room for the money. hotel new, rooms clean, comfortable bed and nice bathroom. room had stove, fridge and microwave. large tv with cable. room was very basic, wood desk and linoleum floors that looked like wood . staff friendly and free coffeeMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r451756847-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -765,15 +1173,48 @@
     <t>VERY CLEAN , kitchen in room, awesome staff,  excellent  prices. Near alot of fun things to do and also close to the city and the airport. they have a laundry room and a fitness room.  Next time i go to denver i will go here!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r446364882-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>446364882</t>
+  </si>
+  <si>
+    <t>12/23/2016</t>
+  </si>
+  <si>
+    <t>A new kind of hotel.</t>
+  </si>
+  <si>
+    <t>I gave 4 stars only because it will be sized up next to cushier locations and those looking for such an experience will be disappointed. I chose them because they were the best deal for our overnight stay. I will search out Woodspring properties for future travels because they are a simple and reliable home away from home. The concept is to provide a clean, safe, and affordable no frills experience and that is what you get. The hallways are reminiscent of a dormatory. No carpeting and no drapes makes it great for those with allergies as everything is easily cleaned. Comfortable bed, very clean room, clean linens and no chance of bugs.   The kitchenette in each room is comparable to those of much higher cost suite properties. The staff is very friendly and helpful. It's hard to compare this to other hotels as their niche has little competition. MoreShow less</t>
+  </si>
+  <si>
+    <t>I gave 4 stars only because it will be sized up next to cushier locations and those looking for such an experience will be disappointed. I chose them because they were the best deal for our overnight stay. I will search out Woodspring properties for future travels because they are a simple and reliable home away from home. The concept is to provide a clean, safe, and affordable no frills experience and that is what you get. The hallways are reminiscent of a dormatory. No carpeting and no drapes makes it great for those with allergies as everything is easily cleaned. Comfortable bed, very clean room, clean linens and no chance of bugs.   The kitchenette in each room is comparable to those of much higher cost suite properties. The staff is very friendly and helpful. It's hard to compare this to other hotels as their niche has little competition. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r443185196-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>443185196</t>
+  </si>
+  <si>
+    <t>12/09/2016</t>
+  </si>
+  <si>
+    <t>Excellent room for price</t>
+  </si>
+  <si>
+    <t>The room is not the biggest,but it is very clean. Bed is pretty good and tv is very good. Sade the front desk clerk was extremely nice and helpful,explaining everything I needed to know about hotel. This my first night but from my experience so far should be fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room is not the biggest,but it is very clean. Bed is pretty good and tv is very good. Sade the front desk clerk was extremely nice and helpful,explaining everything I needed to know about hotel. This my first night but from my experience so far should be fine.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r443154858-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
   </si>
   <si>
     <t>443154858</t>
   </si>
   <si>
-    <t>12/09/2016</t>
-  </si>
-  <si>
     <t>Home away from home</t>
   </si>
   <si>
@@ -828,6 +1269,45 @@
     <t>The rooms are great! It's a very clean hotel and has great wifi! The washer and dryers take card in case you don't have change! I wish every hotel was like this one! Also the managers are awesome!(Jb and Katie)More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r436486516-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>436486516</t>
+  </si>
+  <si>
+    <t>11/11/2016</t>
+  </si>
+  <si>
+    <t>home away from home!!!</t>
+  </si>
+  <si>
+    <t>we stayed for 2 months, while our new house was being built, and it was great!!!  one of the most comfortable queen size beds ever, very quiet, sound proof rooms, great location, housekeeping and front desk staff were great, very friendly and helpful, rooms were clean, loved the "store" in the lobby area, it was a wonderful "home away from home"!!!  definitely a wonderful, clean, modern hotel, perfect for extended stays!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>we stayed for 2 months, while our new house was being built, and it was great!!!  one of the most comfortable queen size beds ever, very quiet, sound proof rooms, great location, housekeeping and front desk staff were great, very friendly and helpful, rooms were clean, loved the "store" in the lobby area, it was a wonderful "home away from home"!!!  definitely a wonderful, clean, modern hotel, perfect for extended stays!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r436161275-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>436161275</t>
+  </si>
+  <si>
+    <t>11/10/2016</t>
+  </si>
+  <si>
+    <t>Very good stay, easy to work with.</t>
+  </si>
+  <si>
+    <t>The people at the front desk were extremely helpful, due to unforeseen circumstances I had stayed for 2 weeks, left for a week, came back and didn't even get to stay a night before I had to leave again. They worked with me far behind what they had to do. I will definetly be looking for a Woodsprings hotel everywhere I travel from now on.MoreShow less</t>
+  </si>
+  <si>
+    <t>The people at the front desk were extremely helpful, due to unforeseen circumstances I had stayed for 2 weeks, left for a week, came back and didn't even get to stay a night before I had to leave again. They worked with me far behind what they had to do. I will definetly be looking for a Woodsprings hotel everywhere I travel from now on.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r432139232-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -885,6 +1365,42 @@
     <t>Very professional staff. I ended up having a broken shower and they accommodated me at every aspect. Would recommend them to anyone. My room was very clean, and the cleaning staff is very accommodating as well. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r424691825-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>424691825</t>
+  </si>
+  <si>
+    <t>10/03/2016</t>
+  </si>
+  <si>
+    <t>Amazing hotel staff</t>
+  </si>
+  <si>
+    <t>Hotel staff is amazing, they make you feel like you're at home. The hotel is nice and clean, I've been here for two weeks and I'm definitely coming back when I'm in Denver. It is close to some really good foodMoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel staff is amazing, they make you feel like you're at home. The hotel is nice and clean, I've been here for two weeks and I'm definitely coming back when I'm in Denver. It is close to some really good foodMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r422859875-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>422859875</t>
+  </si>
+  <si>
+    <t>09/27/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert mcdowell </t>
+  </si>
+  <si>
+    <t>Great place to stay. Highly recommended! Very clean rooms, very accommodating.  Staff was ABSOLUTELY AMAZING! Everyone from the general manager Katie, Jenni (J P), the cleaning staff. Everyone was great. Exemplary service!  I will be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>Great place to stay. Highly recommended! Very clean rooms, very accommodating.  Staff was ABSOLUTELY AMAZING! Everyone from the general manager Katie, Jenni (J P), the cleaning staff. Everyone was great. Exemplary service!  I will be back!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r422660520-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -934,6 +1450,56 @@
   </si>
   <si>
     <t>By far the best WoodSpring I have ever been in, the staff is amazing the rooms are very clean and and the beds are amazing for the rate. If your looking for a great deal this place is it! I do stay at value place and WoodSpring all over the country and this is the best one I have been in two to three years.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r415544312-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>415544312</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t>Pigs lazy maid</t>
+  </si>
+  <si>
+    <t>I got here on Sunday I asked them when they clean the rooms they said Tuesday They didn’t clean The following Tuesday they came in I put all the trash in bags ready to throw away they left the trash the bathroom wasn't cleaned the room wasn't cleaned the maid is a lazy maid you get paid to clean that's your job you can't pick and choose what you want to clean your job is to clean the rooms that's your jobIf you don’t want to clean rooms find another job MoreShow less</t>
+  </si>
+  <si>
+    <t>I got here on Sunday I asked them when they clean the rooms they said Tuesday They didn’t clean The following Tuesday they came in I put all the trash in bags ready to throw away they left the trash the bathroom wasn't cleaned the room wasn't cleaned the maid is a lazy maid you get paid to clean that's your job you can't pick and choose what you want to clean your job is to clean the rooms that's your jobIf you don’t want to clean rooms find another job More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r409422127-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>409422127</t>
+  </si>
+  <si>
+    <t>08/23/2016</t>
+  </si>
+  <si>
+    <t>Dirty, Unsecured, Bug Bites and Rude Staff</t>
+  </si>
+  <si>
+    <t>If you plan to do all the cleaning in the duration of your stay and right as soon as you get in your room then this is the place to be. Half my stay I just found myself scrubbing the floors because they are made cheap, not shiny and made to simply attract dirt. Always dusty. Its just gross. I also experienced bug bites on my leg and ankle upon check in. 
+They give you keys but it's kind of senseless because the back door is never fixed and anyone can come in.
+Staff is rude. One day when I called to speak with the front desk their phone lines were choppy so everything I said echoed. Cameron the manager probably thought I hung up and started to make fun of me and mimic me so rudely. He didn't know I was still listening. I did call back and I did point out how rude he was and he did apologize but it should not have happened at all if the staff hired were professional.
+Also if you plan to spend an arm and a leg on simple snacks like ice cream ($4) and candy or Gatorade ($3) this is the place to be. 
+Ventilation is very poor in rooms and hallways. If someone cooks or fries something the whole floor will stink. Also don't believe them when they say it is a no smoking building. I did smell smoke and...If you plan to do all the cleaning in the duration of your stay and right as soon as you get in your room then this is the place to be. Half my stay I just found myself scrubbing the floors because they are made cheap, not shiny and made to simply attract dirt. Always dusty. Its just gross. I also experienced bug bites on my leg and ankle upon check in. They give you keys but it's kind of senseless because the back door is never fixed and anyone can come in.Staff is rude. One day when I called to speak with the front desk their phone lines were choppy so everything I said echoed. Cameron the manager probably thought I hung up and started to make fun of me and mimic me so rudely. He didn't know I was still listening. I did call back and I did point out how rude he was and he did apologize but it should not have happened at all if the staff hired were professional.Also if you plan to spend an arm and a leg on simple snacks like ice cream ($4) and candy or Gatorade ($3) this is the place to be. Ventilation is very poor in rooms and hallways. If someone cooks or fries something the whole floor will stink. Also don't believe them when they say it is a no smoking building. I did smell smoke and pot all the time while walking the hallways.At one point during my stay one of the smoke alarms was triggered and the whole building's alarms went off at or about 12:30 midnight. It took fire fighters to stop it but everyone had to get out of their rooms and wait outside in their pajamas and sleep clothes for an hour. The staff didn't explain anything or provide any apology...nothing. I expected some sort of notice or explanation for the incident or action plans on how they will prevent such an occurrence again. Nothing. Be prepared to spend for coffee maker, plates, spoons, pots and pans.It's a new hotel but very poorly managed. I only stayed here because it was cheap and I was saving up but if you are looking for a pleasurable stay please, go somewhere else... This place caused me so much stress and disappointment. Not worth it. MoreShow less</t>
+  </si>
+  <si>
+    <t>Serena H, Front Office Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded August 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2016</t>
+  </si>
+  <si>
+    <t>If you plan to do all the cleaning in the duration of your stay and right as soon as you get in your room then this is the place to be. Half my stay I just found myself scrubbing the floors because they are made cheap, not shiny and made to simply attract dirt. Always dusty. Its just gross. I also experienced bug bites on my leg and ankle upon check in. 
+They give you keys but it's kind of senseless because the back door is never fixed and anyone can come in.
+Staff is rude. One day when I called to speak with the front desk their phone lines were choppy so everything I said echoed. Cameron the manager probably thought I hung up and started to make fun of me and mimic me so rudely. He didn't know I was still listening. I did call back and I did point out how rude he was and he did apologize but it should not have happened at all if the staff hired were professional.
+Also if you plan to spend an arm and a leg on simple snacks like ice cream ($4) and candy or Gatorade ($3) this is the place to be. 
+Ventilation is very poor in rooms and hallways. If someone cooks or fries something the whole floor will stink. Also don't believe them when they say it is a no smoking building. I did smell smoke and...If you plan to do all the cleaning in the duration of your stay and right as soon as you get in your room then this is the place to be. Half my stay I just found myself scrubbing the floors because they are made cheap, not shiny and made to simply attract dirt. Always dusty. Its just gross. I also experienced bug bites on my leg and ankle upon check in. They give you keys but it's kind of senseless because the back door is never fixed and anyone can come in.Staff is rude. One day when I called to speak with the front desk their phone lines were choppy so everything I said echoed. Cameron the manager probably thought I hung up and started to make fun of me and mimic me so rudely. He didn't know I was still listening. I did call back and I did point out how rude he was and he did apologize but it should not have happened at all if the staff hired were professional.Also if you plan to spend an arm and a leg on simple snacks like ice cream ($4) and candy or Gatorade ($3) this is the place to be. Ventilation is very poor in rooms and hallways. If someone cooks or fries something the whole floor will stink. Also don't believe them when they say it is a no smoking building. I did smell smoke and pot all the time while walking the hallways.At one point during my stay one of the smoke alarms was triggered and the whole building's alarms went off at or about 12:30 midnight. It took fire fighters to stop it but everyone had to get out of their rooms and wait outside in their pajamas and sleep clothes for an hour. The staff didn't explain anything or provide any apology...nothing. I expected some sort of notice or explanation for the incident or action plans on how they will prevent such an occurrence again. Nothing. Be prepared to spend for coffee maker, plates, spoons, pots and pans.It's a new hotel but very poorly managed. I only stayed here because it was cheap and I was saving up but if you are looking for a pleasurable stay please, go somewhere else... This place caused me so much stress and disappointment. Not worth it. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r397933561-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
@@ -1020,6 +1586,48 @@
 Enjoyed my stay here and actually wished I could have remained for a few more days. Will look for similar place in...Really not a lot of amenities, but conveniently located to Denver, as well as to the airport. Desk is not staffed much of the time, and often they don't even answer the call phone. Nevertheless, they were friendly and helpful when they were present. Not a lot of extras supplied, but extra towels, soap, etc. were immediately supplied, when requested. Basic WIFI is free, and at adequate speed for most everything but gaming. Rooms were quiet, despite close proximity to major Interstate highway. Heating and cooling are both good. Since I stayed there for more than a few days and worked from my room, I especially appreciated tat they basically let me alone to work in peace and quiet, while at the same time being sufficiently available to to meet all my needs. No pool, but I had no kids with me, so who really cares? Laundry room is new, efficient, reasonably priced and is kept clean and supplied with laundry basics.Located right next to another motel where I had booked a week, but spent only 1 night, since it turned out to be basically a homeless hotel for addicts of all sorts, as well as being absolutely filthy, inside and out. Price was essentially the same there as at WOODSPRING - BUT WHAT A huge DIFFERENCE!Enjoyed my stay here and actually wished I could have remained for a few more days. Will look for similar place in future.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r394328016-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>394328016</t>
+  </si>
+  <si>
+    <t>07/19/2016</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>Horrible, horrible, horrible. In town for a show convention and the place, even though it is fairly new, was dirty. The rooms had hair and dust bunnies all over, sheets were stained and hair present, no maid service daily. You have to carry dirty towels down to front desk for new ones, they will not bring to your room. They have no customer service. Maid service is offered only once a week. Half the time the front desk was closed and no one could be located. Afternoon time around dinner on two occassions as we were leaving for dinner, the two front desk clerks were in the parking lot looking for Pokemon. I know because I stopped to ask about service and they told me they were playing. Will never stay on another property they own. MoreShow less</t>
+  </si>
+  <si>
+    <t>Serena H, Front Office Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded July 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2016</t>
+  </si>
+  <si>
+    <t>Horrible, horrible, horrible. In town for a show convention and the place, even though it is fairly new, was dirty. The rooms had hair and dust bunnies all over, sheets were stained and hair present, no maid service daily. You have to carry dirty towels down to front desk for new ones, they will not bring to your room. They have no customer service. Maid service is offered only once a week. Half the time the front desk was closed and no one could be located. Afternoon time around dinner on two occassions as we were leaving for dinner, the two front desk clerks were in the parking lot looking for Pokemon. I know because I stopped to ask about service and they told me they were playing. Will never stay on another property they own. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r392311228-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>392311228</t>
+  </si>
+  <si>
+    <t>07/13/2016</t>
+  </si>
+  <si>
+    <t>Management/Desk RUDE</t>
+  </si>
+  <si>
+    <t>I checked in the place looked nice with the exception of dirty un- swept entry, cigarette buts everywhere, overflowing trash can. The room was cleaned by an obvious amateur housekeeper. But what topped it off was after a week and a half I asked the manager "Camron" for some clean bathing towels and a broom to sweep the floor in the room he went ballistic. He yelled what floor are you on? I replied 2 he again yelled my cleaning day was not today. This place had a nice staff....WHAT HAPPENED?MoreShow less</t>
+  </si>
+  <si>
+    <t>I checked in the place looked nice with the exception of dirty un- swept entry, cigarette buts everywhere, overflowing trash can. The room was cleaned by an obvious amateur housekeeper. But what topped it off was after a week and a half I asked the manager "Camron" for some clean bathing towels and a broom to sweep the floor in the room he went ballistic. He yelled what floor are you on? I replied 2 he again yelled my cleaning day was not today. This place had a nice staff....WHAT HAPPENED?More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r391210037-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -1089,6 +1697,57 @@
     <t>First off, the staff and room were great. I was very comfortable with my stay up until I met some managers. I happened to be staying here for my grandson's graduation. During my stay the hotel opened a snack shop and coffee station. This was fine and all but they have limited hours (6-11) on the coffee and the snack shop's prices are insane. I was in the lobby one morning drinking coffee and I was approached by a gentleman named "Danny". Not sure who he is but definitely felt like a manager. He asked what I thought and I told him the coffee she be open longer....Well I was there for about 2 weeks after meeting and still crazy limited hours on the coffee. Guess they don't care to listen? If you're looking for a clean room with a half attempt at basic hotel amenities this is your place. Talk to Serena or Chariy at the desk if you need anything, they listen.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r374974051-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>374974051</t>
+  </si>
+  <si>
+    <t>05/20/2016</t>
+  </si>
+  <si>
+    <t>AWESOME.</t>
+  </si>
+  <si>
+    <t>This hotel looks exactly like the pictures on their website!!!! And you don't find that often anymore. I am currently staying here for 3 months for an internship and the place is beautiful. Very clean, nice, and accommodating. I feel safe at any time of the day. I give 4 stars because the gym/workout facility is limited and does not offer too much other than 3 cardio machines. But that's the only tiny downfall! I will recommend this to anyone who wants to stay longer than a week or two.MoreShow less</t>
+  </si>
+  <si>
+    <t>Serena H, Front Office Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2016</t>
+  </si>
+  <si>
+    <t>This hotel looks exactly like the pictures on their website!!!! And you don't find that often anymore. I am currently staying here for 3 months for an internship and the place is beautiful. Very clean, nice, and accommodating. I feel safe at any time of the day. I give 4 stars because the gym/workout facility is limited and does not offer too much other than 3 cardio machines. But that's the only tiny downfall! I will recommend this to anyone who wants to stay longer than a week or two.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r374274742-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>374274742</t>
+  </si>
+  <si>
+    <t>05/18/2016</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel while in town visiting local colleges. The staff is friendly and very personable. I would recommend the hotel to all my friends. The room was clean and very welcoming. The price was in our range and the room was worth it.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Serena H, Front Office Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded May 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2016</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel while in town visiting local colleges. The staff is friendly and very personable. I would recommend the hotel to all my friends. The room was clean and very welcoming. The price was in our range and the room was worth it.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r373857988-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -1167,6 +1826,45 @@
     <t>I stayed at this hotel for a week and it was a great experience! The room was very clean, very convenient with the kitchen in the room. I had no problems what so ever felt just like home. The staff was so friendly and helpful to my needs, the manager on duty was amazing and so nice. I will definitely be coming to this hotel again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r363972609-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>363972609</t>
+  </si>
+  <si>
+    <t>Exactly what I needed!</t>
+  </si>
+  <si>
+    <t>I briefly stayed at WoodSpring while visiting some friends. The staff was so professional and extremely helpful. They wasted no time in making sure I had everything I would need for a comfortable stay. I had requested extra pillows and the front desk staff wasted no time in making sure I got them. I've never stayed at a hotel with such a focus on having a happy guest. I would highly recommend WoodSpring to all of my friends and fellow travelers!MoreShow less</t>
+  </si>
+  <si>
+    <t>I briefly stayed at WoodSpring while visiting some friends. The staff was so professional and extremely helpful. They wasted no time in making sure I had everything I would need for a comfortable stay. I had requested extra pillows and the front desk staff wasted no time in making sure I got them. I've never stayed at a hotel with such a focus on having a happy guest. I would highly recommend WoodSpring to all of my friends and fellow travelers!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r361884196-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>361884196</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t>One week stay</t>
+  </si>
+  <si>
+    <t>I stayed at this location for a few days while I was in town visiting some family. I was very pleased by the cleanliness of my room and think the hardwood floors are great. The front desk staff was very friendly and always made a point to welcome me when entering the building. I would definitely stay at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Serena H, Front Office Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded April 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at this location for a few days while I was in town visiting some family. I was very pleased by the cleanliness of my room and think the hardwood floors are great. The front desk staff was very friendly and always made a point to welcome me when entering the building. I would definitely stay at this hotel again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r357699409-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -1239,6 +1937,57 @@
     <t>The rooms were very nice with hardwood floors. Nice sized TV, nice furnished kitchen and furniture for a lengthy stay. It was convenient for restaurants, shopping and near other places needed for a long stay. Convenient to highways to get to a variety of destinations nearby for sight seeing or day trips. The staff was very professional and remembered you when coming to desk for questions or picking up mail.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r343177865-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>343177865</t>
+  </si>
+  <si>
+    <t>01/27/2016</t>
+  </si>
+  <si>
+    <t>Greatest stay ever</t>
+  </si>
+  <si>
+    <t>Best experience ever! The manager Terry was a life saver. If we ever had to stay in another hotel, we would pick this specific place again. Very spacious, the employees were very pleasant, the location is convenient to shopping areas, the rooms are very clean and everything was perfect. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Serena H, Front Office Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded February 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2016</t>
+  </si>
+  <si>
+    <t>Best experience ever! The manager Terry was a life saver. If we ever had to stay in another hotel, we would pick this specific place again. Very spacious, the employees were very pleasant, the location is convenient to shopping areas, the rooms are very clean and everything was perfect. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r337109487-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>337109487</t>
+  </si>
+  <si>
+    <t>01/03/2016</t>
+  </si>
+  <si>
+    <t>Life saver!!</t>
+  </si>
+  <si>
+    <t>We have been in a bad rough patch lately and this place is EXACTLY what we needed to be able to get back on our feet! The building is completely secure with electronic locks on every door (your not getting in without your key or id), cameras in every hallway, an elevator and wheely thingy to get your luggage from the car and a gym even! Inside the rooms are just as their website says! Serena, the property manager checked us in and when we got here we found out Expedia had screwed up our reservation but Serena was a life saver! She got us in a room anyway and the perfect location for us with the perfect neighbors and as I was telling her a tiny bit about our situation she secured our room for us for the length we need knowing the rooms are all going to be taken here soon so she really has been a life saver for us and an answer to our prayers! Thank you Serena!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Serena H, Front Office Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded January 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2016</t>
+  </si>
+  <si>
+    <t>We have been in a bad rough patch lately and this place is EXACTLY what we needed to be able to get back on our feet! The building is completely secure with electronic locks on every door (your not getting in without your key or id), cameras in every hallway, an elevator and wheely thingy to get your luggage from the car and a gym even! Inside the rooms are just as their website says! Serena, the property manager checked us in and when we got here we found out Expedia had screwed up our reservation but Serena was a life saver! She got us in a room anyway and the perfect location for us with the perfect neighbors and as I was telling her a tiny bit about our situation she secured our room for us for the length we need knowing the rooms are all going to be taken here soon so she really has been a life saver for us and an answer to our prayers! Thank you Serena!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r335989132-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -1305,6 +2054,36 @@
     <t>The staff here are people driven and have great customer service skills. I recommend this hotel to everyone because here everyone is welcomed! WoodSpring Suites is also very suitable for a family vacation. Here you feel like you are home away from homeMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r330738616-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>330738616</t>
+  </si>
+  <si>
+    <t>Will definitely stay here again!</t>
+  </si>
+  <si>
+    <t>I was traveling for business and was lucky to discover this new property! My stay was made wonderful by the entire staff that are very friendly, particularly Serena. She helped me with directions and dining suggestions much like a concierge. I'm fussy about cleanliness and there was absolutely no problems in this property. When I return to Denver, I'll be staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was traveling for business and was lucky to discover this new property! My stay was made wonderful by the entire staff that are very friendly, particularly Serena. She helped me with directions and dining suggestions much like a concierge. I'm fussy about cleanliness and there was absolutely no problems in this property. When I return to Denver, I'll be staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r330717593-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>330717593</t>
+  </si>
+  <si>
+    <t>Wonderul Experience!!!</t>
+  </si>
+  <si>
+    <t>Wonderful experience!! I travel a lot for business and stay in a lot of Hotels and this one by far was very pleasant. Staff was very courteous and accommodating. The manager Brent called my room after I had checked in to make sure everything was up to my standards...I have almost never had this happen in any hotel I have stayed at!! The hotel is centrally located next to many food locations for convenience. The hotel was very clean and staff was very professional. I checked in early but they had no problems accommodating  my early arrival. Most hotels are very strict about what time u can enter their premises. I would highly recommend this place to anyone who is in need of a clean and friendly environment!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Wonderful experience!! I travel a lot for business and stay in a lot of Hotels and this one by far was very pleasant. Staff was very courteous and accommodating. The manager Brent called my room after I had checked in to make sure everything was up to my standards...I have almost never had this happen in any hotel I have stayed at!! The hotel is centrally located next to many food locations for convenience. The hotel was very clean and staff was very professional. I checked in early but they had no problems accommodating  my early arrival. Most hotels are very strict about what time u can enter their premises. I would highly recommend this place to anyone who is in need of a clean and friendly environment!!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r330706735-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -1359,6 +2138,42 @@
     <t>I would highly recommend this hotel for any family it's in a really convenient area all the staff for a nice the guest manager Serena happen to be one of the greatest workers they have I really like to thank you for our stayMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r324513162-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>324513162</t>
+  </si>
+  <si>
+    <t>11/04/2015</t>
+  </si>
+  <si>
+    <t>Great service and friendly staff</t>
+  </si>
+  <si>
+    <t>I stayed here for two days and went back for a third! I loved my interactions with the staff and will definatly return if I ever needed to stay in the area. They are very Pet friendly and you hace a jack in the Box right across the way. Not to mention the prices are great 5/5 .MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for two days and went back for a third! I loved my interactions with the staff and will definatly return if I ever needed to stay in the area. They are very Pet friendly and you hace a jack in the Box right across the way. Not to mention the prices are great 5/5 .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r321467855-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>321467855</t>
+  </si>
+  <si>
+    <t>10/24/2015</t>
+  </si>
+  <si>
+    <t>Impeccable service!</t>
+  </si>
+  <si>
+    <t>Friendliest staff I've ever encountered at a motel.  They're always willing to go the extra mile for their guests.  The beds were very comfy. The rooms were clean and inviting. I'd definitely recommend staying here. I'll be coming back for sure! MoreShow less</t>
+  </si>
+  <si>
+    <t>Friendliest staff I've ever encountered at a motel.  They're always willing to go the extra mile for their guests.  The beds were very comfy. The rooms were clean and inviting. I'd definitely recommend staying here. I'll be coming back for sure! More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r321270125-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -1410,6 +2225,45 @@
     <t xml:space="preserve">The staff is Great!!  The hotel is very clean rooms are nice full size refrigerators are a plus.  my family and I stayed here will definitely return!  The staff was more then helpful and made sure our stay was a comfortable one. I've already recommended this place to friends and family </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r319183606-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>319183606</t>
+  </si>
+  <si>
+    <t>10/15/2015</t>
+  </si>
+  <si>
+    <t>Excellent Staff</t>
+  </si>
+  <si>
+    <t>I had to stay here for a relocation. The staff here is excellent, caring, and makes you feel at home catering to whatever your needs might be.  Very friendly, professional and all around outstanding customer service.  The General Manager is a great guy!!!  The rooms are fully equipped with full size refrigerator and a kitchen.  Bathrooms are very roomy.  The beds are very comfy and the hotel including rooms are very very clean and kept up well. I will definitely recommend this hotel to friends and family anytime.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r318453944-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>318453944</t>
+  </si>
+  <si>
+    <t>10/13/2015</t>
+  </si>
+  <si>
+    <t>great stay</t>
+  </si>
+  <si>
+    <t>Room was exactly what i needed. The bed was  nice and comfortable. The kitchen was a big plus since i didnt end up eating out every night. Bathroom was a good size, not cramped like most hotels. Hotel was very CLEAN!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>jfrex08, General Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded October 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2015</t>
+  </si>
+  <si>
+    <t>Room was exactly what i needed. The bed was  nice and comfortable. The kitchen was a big plus since i didnt end up eating out every night. Bathroom was a good size, not cramped like most hotels. Hotel was very CLEAN!!!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r317194345-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -1425,12 +2279,6 @@
     <t>My family ended up needing a place to stay while in Colorado on vacation and was recommended this hotel. Rooms were very clean. Staff was always professional and helpful. Will definitely be back! Great for the price.MoreShow less</t>
   </si>
   <si>
-    <t>jfrex08, General Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded October 14, 2015</t>
-  </si>
-  <si>
-    <t>Responded October 14, 2015</t>
-  </si>
-  <si>
     <t>My family ended up needing a place to stay while in Colorado on vacation and was recommended this hotel. Rooms were very clean. Staff was always professional and helpful. Will definitely be back! Great for the price.More</t>
   </si>
   <si>
@@ -1476,6 +2324,39 @@
     <t>The above reviews are accurate. We just needed a place to sleep before catching a morning flight. This hotel fit the bill. We were there less than 12 hours. There was one bar of soap in the bath. No shampoo. No hair dryer. There's no carpet in the rooms (a plus for as far as I'm concerned). We did not hear noise from the adjacent interstate 70 but we did hear quite a bit of noise from other guests. There is a full sized refrigerator and cook top stove so the hotel I perfect for workers doing local jobs. All in all it was fine for a nights sleep.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r316452452-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>316452452</t>
+  </si>
+  <si>
+    <t>10/05/2015</t>
+  </si>
+  <si>
+    <t>Seems lost</t>
+  </si>
+  <si>
+    <t>Recently stayed at this property on Sunday night with a friend. Booked on Expedia. Had to wait for a room "we sold more than we thought we would". Girl at the desk was kind of rude. They really had to scramble to find people rooms. Really frustrating. MoreShow less</t>
+  </si>
+  <si>
+    <t>Recently stayed at this property on Sunday night with a friend. Booked on Expedia. Had to wait for a room "we sold more than we thought we would". Girl at the desk was kind of rude. They really had to scramble to find people rooms. Really frustrating. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r316242965-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>316242965</t>
+  </si>
+  <si>
+    <t>My trip</t>
+  </si>
+  <si>
+    <t>This hotel is nice, the staff are great.Location is convenient to interstate 70. Close to restaurants and convenient stores. Close to airport.      Brent the manager is great, if you need anything they take care of it.     MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is nice, the staff are great.Location is convenient to interstate 70. Close to restaurants and convenient stores. Close to airport.      Brent the manager is great, if you need anything they take care of it.     More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r316094993-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
   </si>
   <si>
@@ -1540,6 +2421,30 @@
   </si>
   <si>
     <t>Nice new hotel with great service. Well located next to the highway but there was no noise noticed in the room. Comfortable beds and good selection of channels for the TV. Much nicer than other extended stay alternatives nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d8445792-r313423570-WoodSpring_Suites_Aurora_Denver_Airport-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>313423570</t>
+  </si>
+  <si>
+    <t>09/24/2015</t>
+  </si>
+  <si>
+    <t>Great Service</t>
+  </si>
+  <si>
+    <t>Hotel just opened. Nice television, comfortable bed and sleeper couch.Receieved great service from Brett, the manager. The staff was friendly.  Convenient location, close to airport, restaurants, grocery stores.MoreShow less</t>
+  </si>
+  <si>
+    <t>jfrex08, General Manager at WoodSpring Suites Aurora Denver Airport, responded to this reviewResponded September 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2015</t>
+  </si>
+  <si>
+    <t>Hotel just opened. Nice television, comfortable bed and sleeper couch.Receieved great service from Brett, the manager. The staff was friendly.  Convenient location, close to airport, restaurants, grocery stores.More</t>
   </si>
 </sst>
 </file>
@@ -2067,15 +2972,9 @@
       <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="K2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
+      <c r="K2" t="s"/>
+      <c r="L2" t="s"/>
+      <c r="M2" t="s"/>
       <c r="N2" t="s"/>
       <c r="O2" t="s"/>
       <c r="P2" t="s"/>
@@ -2087,15 +2986,9 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>51</v>
-      </c>
-      <c r="X2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>53</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -2110,7 +3003,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -2119,43 +3012,49 @@
         <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="X3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -2171,58 +3070,58 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>69</v>
-      </c>
       <c r="O4" t="s">
-        <v>70</v>
-      </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -2238,52 +3137,58 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
         <v>74</v>
       </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>79</v>
-      </c>
-      <c r="O5" t="s">
-        <v>80</v>
-      </c>
-      <c r="P5" t="s"/>
+      <c r="P5" t="n">
+        <v>2</v>
+      </c>
       <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -2299,7 +3204,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -2308,26 +3213,22 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>79</v>
-      </c>
-      <c r="O6" t="s">
-        <v>80</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
@@ -2338,13 +3239,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="X6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -2360,58 +3261,52 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
         <v>89</v>
       </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>90</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>91</v>
       </c>
-      <c r="K7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>59</v>
-      </c>
       <c r="O7" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
+        <v>92</v>
+      </c>
+      <c r="X7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y7" t="s">
         <v>94</v>
-      </c>
-      <c r="X7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="8">
@@ -2427,52 +3322,58 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
         <v>97</v>
       </c>
-      <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>98</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>99</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>100</v>
       </c>
-      <c r="L8" t="s">
+      <c r="O8" t="s">
         <v>101</v>
       </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
         <v>102</v>
       </c>
-      <c r="O8" t="s">
-        <v>80</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
-      <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>103</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>104</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="9">
@@ -2488,58 +3389,56 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
         <v>106</v>
       </c>
-      <c r="G9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>107</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>108</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>109</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
         <v>110</v>
       </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>102</v>
-      </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
       </c>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>4</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="X9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
@@ -2555,7 +3454,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -2564,37 +3463,37 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
-        <v>5</v>
-      </c>
-      <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -2602,7 +3501,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
@@ -2618,7 +3517,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -2627,25 +3526,25 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O11" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2657,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="X11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Y11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12">
@@ -2679,7 +3578,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -2688,25 +3587,25 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="O12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2718,10 +3617,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="X12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Y12" t="s">
         <v>134</v>
@@ -2761,20 +3660,26 @@
         <v>139</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="O13" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
@@ -2828,25 +3733,29 @@
         <v>148</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
+        <v>75</v>
+      </c>
+      <c r="X14" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y14" t="s">
         <v>149</v>
-      </c>
-      <c r="X14" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="15">
@@ -2862,52 +3771,56 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15" t="s">
         <v>152</v>
       </c>
-      <c r="G15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="L15" t="s">
         <v>153</v>
       </c>
-      <c r="J15" t="s">
-        <v>154</v>
-      </c>
-      <c r="K15" t="s">
-        <v>155</v>
-      </c>
-      <c r="L15" t="s">
-        <v>156</v>
-      </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="O15" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="X15" t="s">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
@@ -2923,7 +3836,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2932,25 +3845,25 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="J16" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="K16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="O16" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2962,13 +3875,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="X16" t="s">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="Y16" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
@@ -2984,7 +3897,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2993,31 +3906,33 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="J17" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="K17" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="L17" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="O17" t="s">
-        <v>70</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
@@ -3027,13 +3942,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="X17" t="s">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="Y17" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18">
@@ -3049,7 +3964,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -3058,43 +3973,45 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="J18" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="K18" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="L18" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="O18" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
       <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>181</v>
-      </c>
-      <c r="X18" t="s">
-        <v>182</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19">
@@ -3110,7 +4027,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -3119,43 +4036,49 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="J19" t="s">
+        <v>175</v>
+      </c>
+      <c r="K19" t="s">
+        <v>176</v>
+      </c>
+      <c r="L19" t="s">
         <v>177</v>
       </c>
-      <c r="K19" t="s">
-        <v>186</v>
-      </c>
-      <c r="L19" t="s">
-        <v>187</v>
-      </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="O19" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="X19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Y19" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
@@ -3171,7 +4094,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -3180,25 +4103,25 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="J20" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="K20" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="L20" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="O20" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3210,13 +4133,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="X20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Y20" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21">
@@ -3232,7 +4155,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -3241,25 +4164,25 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="J21" t="s">
+        <v>189</v>
+      </c>
+      <c r="K21" t="s">
+        <v>190</v>
+      </c>
+      <c r="L21" t="s">
         <v>191</v>
       </c>
-      <c r="K21" t="s">
-        <v>197</v>
-      </c>
-      <c r="L21" t="s">
-        <v>198</v>
-      </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="O21" t="s">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3271,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="X21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Y21" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22">
@@ -3293,7 +4216,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -3302,47 +4225,43 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="J22" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="K22" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L22" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="O22" t="s">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="X22" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Y22" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23">
@@ -3358,7 +4277,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -3367,47 +4286,43 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="J23" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="K23" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L23" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="O23" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="X23" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Y23" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24">
@@ -3423,42 +4338,42 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
+        <v>209</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>210</v>
+      </c>
+      <c r="J24" t="s">
+        <v>211</v>
+      </c>
+      <c r="K24" t="s">
+        <v>212</v>
+      </c>
+      <c r="L24" t="s">
+        <v>213</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
         <v>214</v>
       </c>
-      <c r="G24" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" t="s">
-        <v>46</v>
-      </c>
-      <c r="I24" t="s">
-        <v>215</v>
-      </c>
-      <c r="J24" t="s">
-        <v>216</v>
-      </c>
-      <c r="K24" t="s">
-        <v>217</v>
-      </c>
-      <c r="L24" t="s">
-        <v>218</v>
-      </c>
-      <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>219</v>
-      </c>
       <c r="O24" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="s"/>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
@@ -3468,13 +4383,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="X24" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="Y24" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25">
@@ -3490,34 +4405,34 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
+        <v>218</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>219</v>
+      </c>
+      <c r="J25" t="s">
+        <v>220</v>
+      </c>
+      <c r="K25" t="s">
+        <v>221</v>
+      </c>
+      <c r="L25" t="s">
+        <v>222</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
         <v>223</v>
       </c>
-      <c r="G25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" t="s">
-        <v>224</v>
-      </c>
-      <c r="J25" t="s">
-        <v>216</v>
-      </c>
-      <c r="K25" t="s">
-        <v>225</v>
-      </c>
-      <c r="L25" t="s">
-        <v>226</v>
-      </c>
-      <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s">
-        <v>173</v>
-      </c>
       <c r="O25" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3529,13 +4444,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="X25" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Y25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26">
@@ -3551,56 +4466,52 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
+        <v>227</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
         <v>228</v>
       </c>
-      <c r="G26" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>229</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>230</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>231</v>
       </c>
-      <c r="L26" t="s">
-        <v>232</v>
-      </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>173</v>
+        <v>223</v>
       </c>
       <c r="O26" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="n">
-        <v>3</v>
-      </c>
+      <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="X26" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Y26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27">
@@ -3616,34 +4527,34 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
+        <v>233</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
         <v>234</v>
       </c>
-      <c r="G27" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>235</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>236</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>237</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
         <v>238</v>
       </c>
-      <c r="M27" t="n">
-        <v>5</v>
-      </c>
-      <c r="N27" t="s">
-        <v>239</v>
-      </c>
       <c r="O27" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3655,13 +4566,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
+        <v>239</v>
+      </c>
+      <c r="X27" t="s">
         <v>240</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>241</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="28">
@@ -3677,55 +4588,49 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
+        <v>242</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
         <v>243</v>
       </c>
-      <c r="G28" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" t="s">
-        <v>46</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>244</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>245</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>246</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
         <v>247</v>
       </c>
-      <c r="M28" t="n">
-        <v>5</v>
-      </c>
-      <c r="N28" t="s">
-        <v>239</v>
-      </c>
       <c r="O28" t="s">
-        <v>80</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
+      <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
+        <v>239</v>
+      </c>
+      <c r="X28" t="s">
         <v>240</v>
-      </c>
-      <c r="X28" t="s">
-        <v>241</v>
       </c>
       <c r="Y28" t="s">
         <v>248</v>
@@ -3756,22 +4661,22 @@
         <v>250</v>
       </c>
       <c r="J29" t="s">
+        <v>244</v>
+      </c>
+      <c r="K29" t="s">
         <v>251</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>252</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>247</v>
+      </c>
+      <c r="O29" t="s">
         <v>253</v>
-      </c>
-      <c r="M29" t="n">
-        <v>5</v>
-      </c>
-      <c r="N29" t="s">
-        <v>239</v>
-      </c>
-      <c r="O29" t="s">
-        <v>60</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3783,10 +4688,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
+        <v>239</v>
+      </c>
+      <c r="X29" t="s">
         <v>240</v>
-      </c>
-      <c r="X29" t="s">
-        <v>241</v>
       </c>
       <c r="Y29" t="s">
         <v>254</v>
@@ -3829,25 +4734,29 @@
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="O30" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
-      <c r="R30" t="s"/>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
+        <v>239</v>
+      </c>
+      <c r="X30" t="s">
         <v>240</v>
-      </c>
-      <c r="X30" t="s">
-        <v>241</v>
       </c>
       <c r="Y30" t="s">
         <v>260</v>
@@ -3887,31 +4796,35 @@
         <v>265</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N31" t="s">
         <v>266</v>
       </c>
       <c r="O31" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
       <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
+        <v>239</v>
+      </c>
+      <c r="X31" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y31" t="s">
         <v>267</v>
-      </c>
-      <c r="X31" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="32">
@@ -3927,55 +4840,49 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
+        <v>268</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>269</v>
+      </c>
+      <c r="J32" t="s">
         <v>270</v>
       </c>
-      <c r="G32" t="s">
-        <v>45</v>
-      </c>
-      <c r="H32" t="s">
-        <v>46</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="K32" t="s">
         <v>271</v>
       </c>
-      <c r="J32" t="s">
+      <c r="L32" t="s">
         <v>272</v>
       </c>
-      <c r="K32" t="s">
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
         <v>273</v>
       </c>
-      <c r="L32" t="s">
-        <v>274</v>
-      </c>
-      <c r="M32" t="n">
-        <v>5</v>
-      </c>
-      <c r="N32" t="s">
-        <v>275</v>
-      </c>
       <c r="O32" t="s">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="X32" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="Y32" t="s">
         <v>276</v>
@@ -4006,22 +4913,22 @@
         <v>278</v>
       </c>
       <c r="J33" t="s">
+        <v>270</v>
+      </c>
+      <c r="K33" t="s">
         <v>279</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>280</v>
       </c>
-      <c r="L33" t="s">
-        <v>281</v>
-      </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="O33" t="s">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4033,13 +4940,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="X33" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="Y33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34">
@@ -4055,52 +4962,58 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
+        <v>282</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
         <v>283</v>
       </c>
-      <c r="G34" t="s">
-        <v>45</v>
-      </c>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>284</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>285</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>286</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>273</v>
+      </c>
+      <c r="O34" t="s">
+        <v>55</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>274</v>
+      </c>
+      <c r="X34" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y34" t="s">
         <v>287</v>
-      </c>
-      <c r="M34" t="n">
-        <v>5</v>
-      </c>
-      <c r="N34" t="s">
-        <v>266</v>
-      </c>
-      <c r="O34" t="s">
-        <v>60</v>
-      </c>
-      <c r="P34" t="s"/>
-      <c r="Q34" t="s"/>
-      <c r="R34" t="s"/>
-      <c r="S34" t="s"/>
-      <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="s">
-        <v>267</v>
-      </c>
-      <c r="X34" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="35">
@@ -4116,39 +5029,37 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
+        <v>288</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
         <v>289</v>
       </c>
-      <c r="G35" t="s">
-        <v>45</v>
-      </c>
-      <c r="H35" t="s">
-        <v>46</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>290</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>291</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>292</v>
       </c>
-      <c r="L35" t="s">
-        <v>293</v>
-      </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O35" t="s">
-        <v>204</v>
+        <v>55</v>
       </c>
       <c r="P35" t="s"/>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
       <c r="S35" t="n">
         <v>5</v>
@@ -4161,13 +5072,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="X35" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="Y35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36">
@@ -4183,56 +5094,52 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
+        <v>294</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
         <v>295</v>
       </c>
-      <c r="G36" t="s">
-        <v>45</v>
-      </c>
-      <c r="H36" t="s">
-        <v>46</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>296</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>297</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>298</v>
       </c>
-      <c r="L36" t="s">
-        <v>299</v>
-      </c>
       <c r="M36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="O36" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
-      <c r="R36" t="n">
-        <v>3</v>
-      </c>
+      <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>2</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="X36" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="Y36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37">
@@ -4248,34 +5155,34 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
+        <v>300</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
         <v>301</v>
       </c>
-      <c r="G37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H37" t="s">
-        <v>46</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
+        <v>296</v>
+      </c>
+      <c r="K37" t="s">
         <v>302</v>
       </c>
-      <c r="J37" t="s">
-        <v>297</v>
-      </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>303</v>
       </c>
-      <c r="L37" t="s">
-        <v>304</v>
-      </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O37" t="s">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4287,13 +5194,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="X37" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="Y37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38">
@@ -4309,56 +5216,56 @@
         <v>43</v>
       </c>
       <c r="F38" t="s">
+        <v>305</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
         <v>306</v>
       </c>
-      <c r="G38" t="s">
-        <v>45</v>
-      </c>
-      <c r="H38" t="s">
-        <v>46</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
+        <v>296</v>
+      </c>
+      <c r="K38" t="s">
         <v>307</v>
       </c>
-      <c r="J38" t="s">
+      <c r="L38" t="s">
         <v>308</v>
       </c>
-      <c r="K38" t="s">
-        <v>309</v>
-      </c>
-      <c r="L38" t="s">
-        <v>310</v>
-      </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="O38" t="s">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c r="P38" t="s"/>
-      <c r="Q38" t="s"/>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
       <c r="R38" t="s"/>
-      <c r="S38" t="n">
-        <v>4</v>
-      </c>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="X38" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="Y38" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="39">
@@ -4374,7 +5281,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -4383,47 +5290,49 @@
         <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="J39" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="K39" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L39" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="O39" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="P39" t="s"/>
-      <c r="Q39" t="s"/>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
       <c r="R39" t="s"/>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>320</v>
+        <v>274</v>
       </c>
       <c r="X39" t="s">
-        <v>321</v>
+        <v>275</v>
       </c>
       <c r="Y39" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40">
@@ -4439,7 +5348,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -4448,47 +5357,47 @@
         <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="J40" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="K40" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="L40" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>328</v>
+        <v>238</v>
       </c>
       <c r="O40" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
-      <c r="R40" t="s"/>
-      <c r="S40" t="n">
-        <v>1</v>
-      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="X40" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="Y40" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41">
@@ -4504,7 +5413,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -4513,33 +5422,31 @@
         <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="J41" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="K41" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="L41" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>328</v>
+        <v>238</v>
       </c>
       <c r="O41" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R41" t="s"/>
       <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
@@ -4549,13 +5456,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="X41" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="Y41" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="42">
@@ -4571,7 +5478,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G42" t="s">
         <v>45</v>
@@ -4580,43 +5487,49 @@
         <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="J42" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="K42" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="L42" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="O42" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
-      <c r="R42" t="s"/>
-      <c r="S42" t="s"/>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
       <c r="T42" t="s"/>
-      <c r="U42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="X42" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="Y42" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43">
@@ -4632,7 +5545,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G43" t="s">
         <v>45</v>
@@ -4641,49 +5554,43 @@
         <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="J43" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="K43" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="L43" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>353</v>
+        <v>266</v>
       </c>
       <c r="O43" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="P43" t="s"/>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
-      <c r="R43" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
       <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>1</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
+        <v>338</v>
+      </c>
+      <c r="X43" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y43" t="s">
         <v>345</v>
-      </c>
-      <c r="X43" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="44">
@@ -4699,7 +5606,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="G44" t="s">
         <v>45</v>
@@ -4708,30 +5615,32 @@
         <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J44" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="K44" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="L44" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>353</v>
+        <v>266</v>
       </c>
       <c r="O44" t="s">
-        <v>204</v>
-      </c>
-      <c r="P44" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
       <c r="Q44" t="s"/>
       <c r="R44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S44" t="s"/>
       <c r="T44" t="s"/>
@@ -4742,13 +5651,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="X44" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="Y44" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="45">
@@ -4764,7 +5673,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="G45" t="s">
         <v>45</v>
@@ -4773,43 +5682,49 @@
         <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="J45" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="K45" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="L45" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>368</v>
+        <v>266</v>
       </c>
       <c r="O45" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" t="s"/>
-      <c r="Q45" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
       <c r="R45" t="s"/>
       <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="X45" t="s">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="Y45" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
     </row>
     <row r="46">
@@ -4825,7 +5740,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="G46" t="s">
         <v>45</v>
@@ -4834,33 +5749,31 @@
         <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="J46" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="K46" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="L46" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>377</v>
+        <v>266</v>
       </c>
       <c r="O46" t="s">
-        <v>60</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>5</v>
-      </c>
-      <c r="R46" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
       <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
@@ -4870,13 +5783,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>378</v>
+        <v>338</v>
       </c>
       <c r="X46" t="s">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="Y46" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
     </row>
     <row r="47">
@@ -4892,7 +5805,7 @@
         <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="G47" t="s">
         <v>45</v>
@@ -4901,22 +5814,26 @@
         <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="J47" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="K47" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="L47" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
-      <c r="N47" t="s"/>
-      <c r="O47" t="s"/>
+      <c r="N47" t="s">
+        <v>369</v>
+      </c>
+      <c r="O47" t="s">
+        <v>74</v>
+      </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
       <c r="R47" t="s"/>
@@ -4927,13 +5844,13 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="X47" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="Y47" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
     </row>
     <row r="48">
@@ -4949,7 +5866,7 @@
         <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="G48" t="s">
         <v>45</v>
@@ -4958,43 +5875,49 @@
         <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="J48" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="K48" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="L48" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="O48" t="s">
-        <v>80</v>
-      </c>
-      <c r="P48" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
       <c r="Q48" t="s"/>
-      <c r="R48" t="s"/>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
       <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="X48" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="Y48" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49">
@@ -5010,7 +5933,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="G49" t="s">
         <v>45</v>
@@ -5019,49 +5942,43 @@
         <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="J49" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="K49" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="L49" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="M49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O49" t="s">
-        <v>204</v>
-      </c>
-      <c r="P49" t="n">
-        <v>5</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
-      <c r="R49" t="n">
-        <v>5</v>
-      </c>
+      <c r="R49" t="s"/>
       <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="n">
-        <v>5</v>
-      </c>
+      <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="X49" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="Y49" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
     </row>
     <row r="50">
@@ -5077,7 +5994,7 @@
         <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="G50" t="s">
         <v>45</v>
@@ -5086,49 +6003,39 @@
         <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="J50" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="K50" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="L50" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
-      </c>
-      <c r="N50" t="s">
-        <v>368</v>
-      </c>
-      <c r="O50" t="s">
-        <v>204</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
-      <c r="R50" t="n">
-        <v>5</v>
-      </c>
-      <c r="S50" t="n">
-        <v>5</v>
-      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
-      <c r="U50" t="n">
-        <v>5</v>
-      </c>
+      <c r="U50" t="s"/>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="X50" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
       <c r="Y50" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
     </row>
     <row r="51">
@@ -5144,7 +6051,7 @@
         <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="G51" t="s">
         <v>45</v>
@@ -5153,22 +6060,26 @@
         <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="J51" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="K51" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="L51" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
-      <c r="N51" t="s"/>
-      <c r="O51" t="s"/>
+      <c r="N51" t="s">
+        <v>369</v>
+      </c>
+      <c r="O51" t="s">
+        <v>55</v>
+      </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
       <c r="R51" t="s"/>
@@ -5179,13 +6090,13 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>418</v>
+        <v>370</v>
       </c>
       <c r="X51" t="s">
-        <v>419</v>
+        <v>371</v>
       </c>
       <c r="Y51" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
     </row>
     <row r="52">
@@ -5201,7 +6112,7 @@
         <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="G52" t="s">
         <v>45</v>
@@ -5210,25 +6121,25 @@
         <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="J52" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="K52" t="s">
-        <v>252</v>
+        <v>399</v>
       </c>
       <c r="L52" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>425</v>
+        <v>369</v>
       </c>
       <c r="O52" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5240,13 +6151,13 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>418</v>
+        <v>370</v>
       </c>
       <c r="X52" t="s">
-        <v>419</v>
+        <v>371</v>
       </c>
       <c r="Y52" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
     </row>
     <row r="53">
@@ -5262,7 +6173,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="G53" t="s">
         <v>45</v>
@@ -5271,25 +6182,25 @@
         <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="J53" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="K53" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="L53" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="O53" t="s">
-        <v>204</v>
+        <v>55</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5301,13 +6212,13 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="X53" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="Y53" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
     </row>
     <row r="54">
@@ -5323,7 +6234,7 @@
         <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="G54" t="s">
         <v>45</v>
@@ -5332,43 +6243,47 @@
         <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="J54" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
       <c r="K54" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="L54" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="O54" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="P54" t="s"/>
-      <c r="Q54" t="s"/>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
       <c r="R54" t="s"/>
       <c r="S54" t="s"/>
       <c r="T54" t="s"/>
-      <c r="U54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="X54" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="Y54" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
     </row>
     <row r="55">
@@ -5384,7 +6299,7 @@
         <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="G55" t="s">
         <v>45</v>
@@ -5393,25 +6308,25 @@
         <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="J55" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="K55" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="L55" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="O55" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5423,13 +6338,13 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="X55" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="Y55" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
     </row>
     <row r="56">
@@ -5445,7 +6360,7 @@
         <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="G56" t="s">
         <v>45</v>
@@ -5454,34 +6369,34 @@
         <v>46</v>
       </c>
       <c r="I56" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="J56" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="K56" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="L56" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="O56" t="s">
-        <v>60</v>
-      </c>
-      <c r="P56" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>5</v>
-      </c>
-      <c r="R56" t="s"/>
-      <c r="S56" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
         <v>5</v>
@@ -5490,13 +6405,13 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="X56" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="Y56" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="57">
@@ -5512,7 +6427,7 @@
         <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="G57" t="s">
         <v>45</v>
@@ -5521,49 +6436,43 @@
         <v>46</v>
       </c>
       <c r="I57" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="J57" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="K57" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="L57" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>455</v>
+        <v>407</v>
       </c>
       <c r="O57" t="s">
-        <v>204</v>
+        <v>55</v>
       </c>
       <c r="P57" t="s"/>
-      <c r="Q57" t="n">
-        <v>5</v>
-      </c>
-      <c r="R57" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
       <c r="S57" t="s"/>
       <c r="T57" t="s"/>
-      <c r="U57" t="n">
-        <v>5</v>
-      </c>
+      <c r="U57" t="s"/>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="X57" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="Y57" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
     </row>
     <row r="58">
@@ -5579,7 +6488,7 @@
         <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="G58" t="s">
         <v>45</v>
@@ -5588,25 +6497,25 @@
         <v>46</v>
       </c>
       <c r="I58" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="J58" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="K58" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="L58" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="O58" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -5617,10 +6526,14 @@
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
+      <c r="W58" t="s">
+        <v>408</v>
+      </c>
+      <c r="X58" t="s">
+        <v>409</v>
+      </c>
       <c r="Y58" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
     </row>
     <row r="59">
@@ -5636,7 +6549,7 @@
         <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="G59" t="s">
         <v>45</v>
@@ -5645,47 +6558,43 @@
         <v>46</v>
       </c>
       <c r="I59" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="J59" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="K59" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="L59" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>455</v>
+        <v>407</v>
       </c>
       <c r="O59" t="s">
-        <v>80</v>
-      </c>
-      <c r="P59" t="n">
-        <v>5</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
       <c r="R59" t="s"/>
       <c r="S59" t="s"/>
       <c r="T59" t="s"/>
-      <c r="U59" t="n">
-        <v>5</v>
-      </c>
+      <c r="U59" t="s"/>
       <c r="V59" t="n">
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>467</v>
+        <v>408</v>
       </c>
       <c r="X59" t="s">
-        <v>468</v>
+        <v>409</v>
       </c>
       <c r="Y59" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
     </row>
     <row r="60">
@@ -5701,7 +6610,7 @@
         <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="G60" t="s">
         <v>45</v>
@@ -5710,47 +6619,43 @@
         <v>46</v>
       </c>
       <c r="I60" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="J60" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="K60" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="L60" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>455</v>
+        <v>429</v>
       </c>
       <c r="O60" t="s">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c r="P60" t="s"/>
-      <c r="Q60" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q60" t="s"/>
       <c r="R60" t="s"/>
       <c r="S60" t="s"/>
       <c r="T60" t="s"/>
-      <c r="U60" t="n">
-        <v>5</v>
-      </c>
+      <c r="U60" t="s"/>
       <c r="V60" t="n">
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>475</v>
+        <v>408</v>
       </c>
       <c r="X60" t="s">
-        <v>476</v>
+        <v>409</v>
       </c>
       <c r="Y60" t="s">
-        <v>477</v>
+        <v>454</v>
       </c>
     </row>
     <row r="61">
@@ -5766,7 +6671,7 @@
         <v>43</v>
       </c>
       <c r="F61" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
       <c r="G61" t="s">
         <v>45</v>
@@ -5775,43 +6680,49 @@
         <v>46</v>
       </c>
       <c r="I61" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="J61" t="s">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="K61" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="L61" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="M61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="O61" t="s">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c r="P61" t="s"/>
-      <c r="Q61" t="s"/>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
       <c r="R61" t="s"/>
-      <c r="S61" t="s"/>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
       <c r="T61" t="s"/>
-      <c r="U61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
       <c r="V61" t="n">
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>475</v>
+        <v>408</v>
       </c>
       <c r="X61" t="s">
-        <v>476</v>
+        <v>409</v>
       </c>
       <c r="Y61" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
     </row>
     <row r="62">
@@ -5827,7 +6738,7 @@
         <v>43</v>
       </c>
       <c r="F62" t="s">
-        <v>484</v>
+        <v>461</v>
       </c>
       <c r="G62" t="s">
         <v>45</v>
@@ -5836,43 +6747,47 @@
         <v>46</v>
       </c>
       <c r="I62" t="s">
-        <v>485</v>
+        <v>462</v>
       </c>
       <c r="J62" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
       <c r="K62" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="L62" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="M62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N62" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="O62" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
-      <c r="R62" t="s"/>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
       <c r="S62" t="s"/>
       <c r="T62" t="s"/>
-      <c r="U62" t="s"/>
+      <c r="U62" t="n">
+        <v>2</v>
+      </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>489</v>
+        <v>408</v>
       </c>
       <c r="X62" t="s">
-        <v>490</v>
+        <v>409</v>
       </c>
       <c r="Y62" t="s">
-        <v>491</v>
+        <v>466</v>
       </c>
     </row>
     <row r="63">
@@ -5888,7 +6803,7 @@
         <v>43</v>
       </c>
       <c r="F63" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="G63" t="s">
         <v>45</v>
@@ -5897,25 +6812,25 @@
         <v>46</v>
       </c>
       <c r="I63" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="J63" t="s">
-        <v>494</v>
+        <v>463</v>
       </c>
       <c r="K63" t="s">
-        <v>495</v>
+        <v>469</v>
       </c>
       <c r="L63" t="s">
-        <v>496</v>
+        <v>470</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>455</v>
+        <v>429</v>
       </c>
       <c r="O63" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -5927,13 +6842,13 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>489</v>
+        <v>408</v>
       </c>
       <c r="X63" t="s">
-        <v>490</v>
+        <v>409</v>
       </c>
       <c r="Y63" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
     </row>
     <row r="64">
@@ -5949,7 +6864,7 @@
         <v>43</v>
       </c>
       <c r="F64" t="s">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="G64" t="s">
         <v>45</v>
@@ -5958,49 +6873,2896 @@
         <v>46</v>
       </c>
       <c r="I64" t="s">
-        <v>499</v>
+        <v>473</v>
       </c>
       <c r="J64" t="s">
-        <v>500</v>
+        <v>474</v>
       </c>
       <c r="K64" t="s">
-        <v>501</v>
+        <v>475</v>
       </c>
       <c r="L64" t="s">
-        <v>502</v>
+        <v>476</v>
       </c>
       <c r="M64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N64" t="s">
-        <v>455</v>
+        <v>429</v>
       </c>
       <c r="O64" t="s">
-        <v>204</v>
-      </c>
-      <c r="P64" t="n">
-        <v>5</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
-      <c r="R64" t="n">
-        <v>5</v>
-      </c>
+      <c r="R64" t="s"/>
       <c r="S64" t="s"/>
       <c r="T64" t="s"/>
-      <c r="U64" t="n">
-        <v>5</v>
-      </c>
+      <c r="U64" t="s"/>
       <c r="V64" t="n">
         <v>0</v>
       </c>
       <c r="W64" t="s">
+        <v>408</v>
+      </c>
+      <c r="X64" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>478</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>479</v>
+      </c>
+      <c r="J65" t="s">
+        <v>480</v>
+      </c>
+      <c r="K65" t="s">
+        <v>481</v>
+      </c>
+      <c r="L65" t="s">
+        <v>482</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>416</v>
+      </c>
+      <c r="O65" t="s">
+        <v>74</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>483</v>
+      </c>
+      <c r="X65" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>486</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>487</v>
+      </c>
+      <c r="J66" t="s">
+        <v>488</v>
+      </c>
+      <c r="K66" t="s">
+        <v>489</v>
+      </c>
+      <c r="L66" t="s">
+        <v>490</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>491</v>
+      </c>
+      <c r="O66" t="s">
+        <v>74</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>492</v>
+      </c>
+      <c r="X66" t="s">
+        <v>493</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>495</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>496</v>
+      </c>
+      <c r="J67" t="s">
+        <v>497</v>
+      </c>
+      <c r="K67" t="s">
+        <v>498</v>
+      </c>
+      <c r="L67" t="s">
+        <v>499</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="s">
+        <v>491</v>
+      </c>
+      <c r="O67" t="s">
+        <v>74</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>500</v>
+      </c>
+      <c r="X67" t="s">
+        <v>501</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
         <v>503</v>
       </c>
-      <c r="X64" t="s">
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
         <v>504</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="J68" t="s">
         <v>505</v>
+      </c>
+      <c r="K68" t="s">
+        <v>506</v>
+      </c>
+      <c r="L68" t="s">
+        <v>507</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>508</v>
+      </c>
+      <c r="O68" t="s">
+        <v>55</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>2</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>509</v>
+      </c>
+      <c r="X68" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>512</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>513</v>
+      </c>
+      <c r="J69" t="s">
+        <v>514</v>
+      </c>
+      <c r="K69" t="s">
+        <v>515</v>
+      </c>
+      <c r="L69" t="s">
+        <v>516</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>491</v>
+      </c>
+      <c r="O69" t="s">
+        <v>55</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>517</v>
+      </c>
+      <c r="X69" t="s">
+        <v>518</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>520</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>521</v>
+      </c>
+      <c r="J70" t="s">
+        <v>522</v>
+      </c>
+      <c r="K70" t="s">
+        <v>523</v>
+      </c>
+      <c r="L70" t="s">
+        <v>524</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>491</v>
+      </c>
+      <c r="O70" t="s">
+        <v>55</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="n">
+        <v>2</v>
+      </c>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>509</v>
+      </c>
+      <c r="X70" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>526</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>527</v>
+      </c>
+      <c r="J71" t="s">
+        <v>528</v>
+      </c>
+      <c r="K71" t="s">
+        <v>529</v>
+      </c>
+      <c r="L71" t="s">
+        <v>530</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>508</v>
+      </c>
+      <c r="O71" t="s">
+        <v>55</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>531</v>
+      </c>
+      <c r="X71" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>534</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>535</v>
+      </c>
+      <c r="J72" t="s">
+        <v>536</v>
+      </c>
+      <c r="K72" t="s">
+        <v>537</v>
+      </c>
+      <c r="L72" t="s">
+        <v>538</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>508</v>
+      </c>
+      <c r="O72" t="s">
+        <v>192</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>539</v>
+      </c>
+      <c r="X72" t="s">
+        <v>540</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>542</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>543</v>
+      </c>
+      <c r="J73" t="s">
+        <v>544</v>
+      </c>
+      <c r="K73" t="s">
+        <v>545</v>
+      </c>
+      <c r="L73" t="s">
+        <v>546</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>547</v>
+      </c>
+      <c r="O73" t="s">
+        <v>74</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2</v>
+      </c>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>539</v>
+      </c>
+      <c r="X73" t="s">
+        <v>540</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>549</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>550</v>
+      </c>
+      <c r="J74" t="s">
+        <v>551</v>
+      </c>
+      <c r="K74" t="s">
+        <v>552</v>
+      </c>
+      <c r="L74" t="s">
+        <v>553</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>547</v>
+      </c>
+      <c r="O74" t="s">
+        <v>55</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>554</v>
+      </c>
+      <c r="X74" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>557</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>558</v>
+      </c>
+      <c r="J75" t="s">
+        <v>559</v>
+      </c>
+      <c r="K75" t="s">
+        <v>560</v>
+      </c>
+      <c r="L75" t="s">
+        <v>561</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>562</v>
+      </c>
+      <c r="O75" t="s">
+        <v>74</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>563</v>
+      </c>
+      <c r="X75" t="s">
+        <v>564</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>566</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>567</v>
+      </c>
+      <c r="J76" t="s">
+        <v>568</v>
+      </c>
+      <c r="K76" t="s">
+        <v>569</v>
+      </c>
+      <c r="L76" t="s">
+        <v>570</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>547</v>
+      </c>
+      <c r="O76" t="s">
+        <v>253</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>571</v>
+      </c>
+      <c r="X76" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>574</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>575</v>
+      </c>
+      <c r="J77" t="s">
+        <v>576</v>
+      </c>
+      <c r="K77" t="s">
+        <v>577</v>
+      </c>
+      <c r="L77" t="s">
+        <v>578</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>579</v>
+      </c>
+      <c r="O77" t="s">
+        <v>55</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>580</v>
+      </c>
+      <c r="X77" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>583</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>584</v>
+      </c>
+      <c r="J78" t="s">
+        <v>585</v>
+      </c>
+      <c r="K78" t="s">
+        <v>586</v>
+      </c>
+      <c r="L78" t="s">
+        <v>587</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>588</v>
+      </c>
+      <c r="O78" t="s">
+        <v>55</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>589</v>
+      </c>
+      <c r="X78" t="s">
+        <v>590</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>592</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>593</v>
+      </c>
+      <c r="J79" t="s">
+        <v>585</v>
+      </c>
+      <c r="K79" t="s">
+        <v>594</v>
+      </c>
+      <c r="L79" t="s">
+        <v>595</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>562</v>
+      </c>
+      <c r="O79" t="s">
+        <v>253</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>589</v>
+      </c>
+      <c r="X79" t="s">
+        <v>590</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>597</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>598</v>
+      </c>
+      <c r="J80" t="s">
+        <v>599</v>
+      </c>
+      <c r="K80" t="s">
+        <v>600</v>
+      </c>
+      <c r="L80" t="s">
+        <v>601</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>562</v>
+      </c>
+      <c r="O80" t="s">
+        <v>253</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>602</v>
+      </c>
+      <c r="X80" t="s">
+        <v>603</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>605</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>606</v>
+      </c>
+      <c r="J81" t="s">
+        <v>607</v>
+      </c>
+      <c r="K81" t="s">
+        <v>608</v>
+      </c>
+      <c r="L81" t="s">
+        <v>609</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>610</v>
+      </c>
+      <c r="X81" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>613</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>614</v>
+      </c>
+      <c r="J82" t="s">
+        <v>615</v>
+      </c>
+      <c r="K82" t="s">
+        <v>616</v>
+      </c>
+      <c r="L82" t="s">
+        <v>617</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>588</v>
+      </c>
+      <c r="O82" t="s">
+        <v>74</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="s"/>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>618</v>
+      </c>
+      <c r="X82" t="s">
+        <v>619</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>621</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>622</v>
+      </c>
+      <c r="J83" t="s">
+        <v>623</v>
+      </c>
+      <c r="K83" t="s">
+        <v>624</v>
+      </c>
+      <c r="L83" t="s">
+        <v>625</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>579</v>
+      </c>
+      <c r="O83" t="s">
+        <v>253</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>626</v>
+      </c>
+      <c r="X83" t="s">
+        <v>627</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>629</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>630</v>
+      </c>
+      <c r="J84" t="s">
+        <v>631</v>
+      </c>
+      <c r="K84" t="s">
+        <v>632</v>
+      </c>
+      <c r="L84" t="s">
+        <v>633</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>634</v>
+      </c>
+      <c r="O84" t="s">
+        <v>74</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>635</v>
+      </c>
+      <c r="X84" t="s">
+        <v>636</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>638</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>639</v>
+      </c>
+      <c r="J85" t="s">
+        <v>640</v>
+      </c>
+      <c r="K85" t="s">
+        <v>641</v>
+      </c>
+      <c r="L85" t="s">
+        <v>642</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>634</v>
+      </c>
+      <c r="O85" t="s">
+        <v>74</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>643</v>
+      </c>
+      <c r="X85" t="s">
+        <v>644</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>646</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>647</v>
+      </c>
+      <c r="J86" t="s">
+        <v>648</v>
+      </c>
+      <c r="K86" t="s">
+        <v>649</v>
+      </c>
+      <c r="L86" t="s">
+        <v>650</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>579</v>
+      </c>
+      <c r="O86" t="s">
+        <v>253</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>651</v>
+      </c>
+      <c r="X86" t="s">
+        <v>652</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>654</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>655</v>
+      </c>
+      <c r="J87" t="s">
+        <v>656</v>
+      </c>
+      <c r="K87" t="s">
+        <v>657</v>
+      </c>
+      <c r="L87" t="s">
+        <v>658</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="s"/>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>659</v>
+      </c>
+      <c r="X87" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>662</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>663</v>
+      </c>
+      <c r="J88" t="s">
+        <v>664</v>
+      </c>
+      <c r="K88" t="s">
+        <v>393</v>
+      </c>
+      <c r="L88" t="s">
+        <v>665</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>666</v>
+      </c>
+      <c r="O88" t="s">
+        <v>55</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>659</v>
+      </c>
+      <c r="X88" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>668</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>669</v>
+      </c>
+      <c r="J89" t="s">
+        <v>664</v>
+      </c>
+      <c r="K89" t="s">
+        <v>670</v>
+      </c>
+      <c r="L89" t="s">
+        <v>671</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>579</v>
+      </c>
+      <c r="O89" t="s">
+        <v>55</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>659</v>
+      </c>
+      <c r="X89" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>673</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>674</v>
+      </c>
+      <c r="J90" t="s">
+        <v>664</v>
+      </c>
+      <c r="K90" t="s">
+        <v>675</v>
+      </c>
+      <c r="L90" t="s">
+        <v>676</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>579</v>
+      </c>
+      <c r="O90" t="s">
+        <v>55</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>659</v>
+      </c>
+      <c r="X90" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>678</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>679</v>
+      </c>
+      <c r="J91" t="s">
+        <v>664</v>
+      </c>
+      <c r="K91" t="s">
+        <v>680</v>
+      </c>
+      <c r="L91" t="s">
+        <v>681</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>682</v>
+      </c>
+      <c r="O91" t="s">
+        <v>253</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="s"/>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>659</v>
+      </c>
+      <c r="X91" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s">
+        <v>684</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s">
+        <v>685</v>
+      </c>
+      <c r="J92" t="s">
+        <v>686</v>
+      </c>
+      <c r="K92" t="s">
+        <v>687</v>
+      </c>
+      <c r="L92" t="s">
+        <v>688</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>579</v>
+      </c>
+      <c r="O92" t="s">
+        <v>55</v>
+      </c>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="s"/>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>659</v>
+      </c>
+      <c r="X92" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s">
+        <v>690</v>
+      </c>
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" t="s">
+        <v>691</v>
+      </c>
+      <c r="J93" t="s">
+        <v>692</v>
+      </c>
+      <c r="K93" t="s">
+        <v>693</v>
+      </c>
+      <c r="L93" t="s">
+        <v>694</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>579</v>
+      </c>
+      <c r="O93" t="s">
+        <v>101</v>
+      </c>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="s"/>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>659</v>
+      </c>
+      <c r="X93" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" t="s">
+        <v>696</v>
+      </c>
+      <c r="G94" t="s">
+        <v>45</v>
+      </c>
+      <c r="H94" t="s">
+        <v>46</v>
+      </c>
+      <c r="I94" t="s">
+        <v>697</v>
+      </c>
+      <c r="J94" t="s">
+        <v>698</v>
+      </c>
+      <c r="K94" t="s">
+        <v>699</v>
+      </c>
+      <c r="L94" t="s">
+        <v>700</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>579</v>
+      </c>
+      <c r="O94" t="s">
+        <v>253</v>
+      </c>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>659</v>
+      </c>
+      <c r="X94" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" t="s">
+        <v>702</v>
+      </c>
+      <c r="G95" t="s">
+        <v>45</v>
+      </c>
+      <c r="H95" t="s">
+        <v>46</v>
+      </c>
+      <c r="I95" t="s">
+        <v>703</v>
+      </c>
+      <c r="J95" t="s">
+        <v>704</v>
+      </c>
+      <c r="K95" t="s">
+        <v>705</v>
+      </c>
+      <c r="L95" t="s">
+        <v>706</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>682</v>
+      </c>
+      <c r="O95" t="s">
+        <v>192</v>
+      </c>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="s"/>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>659</v>
+      </c>
+      <c r="X95" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" t="s">
+        <v>708</v>
+      </c>
+      <c r="G96" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I96" t="s">
+        <v>709</v>
+      </c>
+      <c r="J96" t="s">
+        <v>710</v>
+      </c>
+      <c r="K96" t="s">
+        <v>711</v>
+      </c>
+      <c r="L96" t="s">
+        <v>712</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>682</v>
+      </c>
+      <c r="O96" t="s">
+        <v>55</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="s"/>
+      <c r="S96" t="s"/>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>659</v>
+      </c>
+      <c r="X96" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" t="s">
+        <v>714</v>
+      </c>
+      <c r="G97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97" t="s">
+        <v>46</v>
+      </c>
+      <c r="I97" t="s">
+        <v>715</v>
+      </c>
+      <c r="J97" t="s">
+        <v>710</v>
+      </c>
+      <c r="K97" t="s">
+        <v>716</v>
+      </c>
+      <c r="L97" t="s">
+        <v>717</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>718</v>
+      </c>
+      <c r="O97" t="s">
+        <v>253</v>
+      </c>
+      <c r="P97" t="s"/>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="s"/>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>659</v>
+      </c>
+      <c r="X97" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>43</v>
+      </c>
+      <c r="F98" t="s">
+        <v>720</v>
+      </c>
+      <c r="G98" t="s">
+        <v>45</v>
+      </c>
+      <c r="H98" t="s">
+        <v>46</v>
+      </c>
+      <c r="I98" t="s">
+        <v>721</v>
+      </c>
+      <c r="J98" t="s">
+        <v>722</v>
+      </c>
+      <c r="K98" t="s">
+        <v>723</v>
+      </c>
+      <c r="L98" t="s">
+        <v>724</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>682</v>
+      </c>
+      <c r="O98" t="s">
+        <v>74</v>
+      </c>
+      <c r="P98" t="s"/>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="s"/>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>43</v>
+      </c>
+      <c r="F99" t="s">
+        <v>725</v>
+      </c>
+      <c r="G99" t="s">
+        <v>45</v>
+      </c>
+      <c r="H99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I99" t="s">
+        <v>726</v>
+      </c>
+      <c r="J99" t="s">
+        <v>727</v>
+      </c>
+      <c r="K99" t="s">
+        <v>728</v>
+      </c>
+      <c r="L99" t="s">
+        <v>729</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s"/>
+      <c r="O99" t="s"/>
+      <c r="P99" t="s"/>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="s"/>
+      <c r="S99" t="s"/>
+      <c r="T99" t="s"/>
+      <c r="U99" t="s"/>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" t="s">
+        <v>730</v>
+      </c>
+      <c r="G100" t="s">
+        <v>45</v>
+      </c>
+      <c r="H100" t="s">
+        <v>46</v>
+      </c>
+      <c r="I100" t="s">
+        <v>731</v>
+      </c>
+      <c r="J100" t="s">
+        <v>732</v>
+      </c>
+      <c r="K100" t="s">
+        <v>733</v>
+      </c>
+      <c r="L100" t="s">
+        <v>734</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>682</v>
+      </c>
+      <c r="O100" t="s">
+        <v>55</v>
+      </c>
+      <c r="P100" t="s"/>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="s"/>
+      <c r="S100" t="s"/>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>735</v>
+      </c>
+      <c r="X100" t="s">
+        <v>736</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>43</v>
+      </c>
+      <c r="F101" t="s">
+        <v>738</v>
+      </c>
+      <c r="G101" t="s">
+        <v>45</v>
+      </c>
+      <c r="H101" t="s">
+        <v>46</v>
+      </c>
+      <c r="I101" t="s">
+        <v>739</v>
+      </c>
+      <c r="J101" t="s">
+        <v>740</v>
+      </c>
+      <c r="K101" t="s">
+        <v>741</v>
+      </c>
+      <c r="L101" t="s">
+        <v>742</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>718</v>
+      </c>
+      <c r="O101" t="s">
+        <v>74</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="s"/>
+      <c r="S101" t="s"/>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>735</v>
+      </c>
+      <c r="X101" t="s">
+        <v>736</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>43</v>
+      </c>
+      <c r="F102" t="s">
+        <v>744</v>
+      </c>
+      <c r="G102" t="s">
+        <v>45</v>
+      </c>
+      <c r="H102" t="s">
+        <v>46</v>
+      </c>
+      <c r="I102" t="s">
+        <v>745</v>
+      </c>
+      <c r="J102" t="s">
+        <v>746</v>
+      </c>
+      <c r="K102" t="s">
+        <v>747</v>
+      </c>
+      <c r="L102" t="s">
+        <v>748</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>718</v>
+      </c>
+      <c r="O102" t="s">
+        <v>74</v>
+      </c>
+      <c r="P102" t="s"/>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="s"/>
+      <c r="S102" t="s"/>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>749</v>
+      </c>
+      <c r="X102" t="s">
+        <v>750</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>43</v>
+      </c>
+      <c r="F103" t="s">
+        <v>752</v>
+      </c>
+      <c r="G103" t="s">
+        <v>45</v>
+      </c>
+      <c r="H103" t="s">
+        <v>46</v>
+      </c>
+      <c r="I103" t="s">
+        <v>753</v>
+      </c>
+      <c r="J103" t="s">
+        <v>754</v>
+      </c>
+      <c r="K103" t="s">
+        <v>755</v>
+      </c>
+      <c r="L103" t="s">
+        <v>756</v>
+      </c>
+      <c r="M103" t="n">
+        <v>3</v>
+      </c>
+      <c r="N103" t="s">
+        <v>682</v>
+      </c>
+      <c r="O103" t="s">
+        <v>74</v>
+      </c>
+      <c r="P103" t="s"/>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="s"/>
+      <c r="S103" t="s"/>
+      <c r="T103" t="s"/>
+      <c r="U103" t="s"/>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>749</v>
+      </c>
+      <c r="X103" t="s">
+        <v>750</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>43</v>
+      </c>
+      <c r="F104" t="s">
+        <v>758</v>
+      </c>
+      <c r="G104" t="s">
+        <v>45</v>
+      </c>
+      <c r="H104" t="s">
+        <v>46</v>
+      </c>
+      <c r="I104" t="s">
+        <v>759</v>
+      </c>
+      <c r="J104" t="s">
+        <v>760</v>
+      </c>
+      <c r="K104" t="s">
+        <v>761</v>
+      </c>
+      <c r="L104" t="s">
+        <v>762</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="s">
+        <v>718</v>
+      </c>
+      <c r="O104" t="s">
+        <v>55</v>
+      </c>
+      <c r="P104" t="s"/>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="s"/>
+      <c r="T104" t="s"/>
+      <c r="U104" t="s"/>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>749</v>
+      </c>
+      <c r="X104" t="s">
+        <v>750</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>43</v>
+      </c>
+      <c r="F105" t="s">
+        <v>764</v>
+      </c>
+      <c r="G105" t="s">
+        <v>45</v>
+      </c>
+      <c r="H105" t="s">
+        <v>46</v>
+      </c>
+      <c r="I105" t="s">
+        <v>765</v>
+      </c>
+      <c r="J105" t="s">
+        <v>760</v>
+      </c>
+      <c r="K105" t="s">
+        <v>766</v>
+      </c>
+      <c r="L105" t="s">
+        <v>767</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>682</v>
+      </c>
+      <c r="O105" t="s">
+        <v>55</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>749</v>
+      </c>
+      <c r="X105" t="s">
+        <v>750</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>43</v>
+      </c>
+      <c r="F106" t="s">
+        <v>769</v>
+      </c>
+      <c r="G106" t="s">
+        <v>45</v>
+      </c>
+      <c r="H106" t="s">
+        <v>46</v>
+      </c>
+      <c r="I106" t="s">
+        <v>770</v>
+      </c>
+      <c r="J106" t="s">
+        <v>771</v>
+      </c>
+      <c r="K106" t="s">
+        <v>772</v>
+      </c>
+      <c r="L106" t="s">
+        <v>773</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>682</v>
+      </c>
+      <c r="O106" t="s">
+        <v>55</v>
+      </c>
+      <c r="P106" t="s"/>
+      <c r="Q106" t="s"/>
+      <c r="R106" t="s"/>
+      <c r="S106" t="s"/>
+      <c r="T106" t="s"/>
+      <c r="U106" t="s"/>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>774</v>
+      </c>
+      <c r="X106" t="s">
+        <v>775</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>43</v>
+      </c>
+      <c r="F107" t="s">
+        <v>777</v>
+      </c>
+      <c r="G107" t="s">
+        <v>45</v>
+      </c>
+      <c r="H107" t="s">
+        <v>46</v>
+      </c>
+      <c r="I107" t="s">
+        <v>778</v>
+      </c>
+      <c r="J107" t="s">
+        <v>779</v>
+      </c>
+      <c r="K107" t="s">
+        <v>780</v>
+      </c>
+      <c r="L107" t="s">
+        <v>781</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>718</v>
+      </c>
+      <c r="O107" t="s">
+        <v>74</v>
+      </c>
+      <c r="P107" t="s"/>
+      <c r="Q107" t="s"/>
+      <c r="R107" t="s"/>
+      <c r="S107" t="s"/>
+      <c r="T107" t="s"/>
+      <c r="U107" t="s"/>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>774</v>
+      </c>
+      <c r="X107" t="s">
+        <v>775</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>43</v>
+      </c>
+      <c r="F108" t="s">
+        <v>783</v>
+      </c>
+      <c r="G108" t="s">
+        <v>45</v>
+      </c>
+      <c r="H108" t="s">
+        <v>46</v>
+      </c>
+      <c r="I108" t="s">
+        <v>784</v>
+      </c>
+      <c r="J108" t="s">
+        <v>785</v>
+      </c>
+      <c r="K108" t="s">
+        <v>786</v>
+      </c>
+      <c r="L108" t="s">
+        <v>787</v>
+      </c>
+      <c r="M108" t="n">
+        <v>5</v>
+      </c>
+      <c r="N108" t="s">
+        <v>718</v>
+      </c>
+      <c r="O108" t="s">
+        <v>253</v>
+      </c>
+      <c r="P108" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q108" t="s"/>
+      <c r="R108" t="n">
+        <v>5</v>
+      </c>
+      <c r="S108" t="s"/>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>788</v>
+      </c>
+      <c r="X108" t="s">
+        <v>789</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>64553</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>43</v>
+      </c>
+      <c r="F109" t="s">
+        <v>791</v>
+      </c>
+      <c r="G109" t="s">
+        <v>45</v>
+      </c>
+      <c r="H109" t="s">
+        <v>46</v>
+      </c>
+      <c r="I109" t="s">
+        <v>792</v>
+      </c>
+      <c r="J109" t="s">
+        <v>793</v>
+      </c>
+      <c r="K109" t="s">
+        <v>794</v>
+      </c>
+      <c r="L109" t="s">
+        <v>795</v>
+      </c>
+      <c r="M109" t="n">
+        <v>5</v>
+      </c>
+      <c r="N109" t="s">
+        <v>718</v>
+      </c>
+      <c r="O109" t="s">
+        <v>55</v>
+      </c>
+      <c r="P109" t="s"/>
+      <c r="Q109" t="s"/>
+      <c r="R109" t="s"/>
+      <c r="S109" t="n">
+        <v>5</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s">
+        <v>796</v>
+      </c>
+      <c r="X109" t="s">
+        <v>797</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>798</v>
       </c>
     </row>
   </sheetData>
